--- a/Result/itviec.xlsx
+++ b/Result/itviec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="335">
   <si>
     <t>Name</t>
   </si>
@@ -37,42 +37,66 @@
     <t>Date</t>
   </si>
   <si>
+    <t>M_Service (MoMo)</t>
+  </si>
+  <si>
+    <t>Five9 Vietnam</t>
+  </si>
+  <si>
+    <t>VNG Corporation</t>
+  </si>
+  <si>
+    <t>Knorex</t>
+  </si>
+  <si>
+    <t>Viettel Cyber Security</t>
+  </si>
+  <si>
+    <t>Christina's</t>
+  </si>
+  <si>
+    <t>FPT Software</t>
+  </si>
+  <si>
+    <t>Deliveree On-Demand Logistics</t>
+  </si>
+  <si>
+    <t>AppsFlyer</t>
+  </si>
+  <si>
+    <t>Viettel Cyberspace Center</t>
+  </si>
+  <si>
+    <t>Talosix</t>
+  </si>
+  <si>
     <t>Chotot</t>
   </si>
   <si>
-    <t>Knorex</t>
-  </si>
-  <si>
     <t>SVTech</t>
   </si>
   <si>
-    <t>Viettel Cyberspace Center</t>
-  </si>
-  <si>
     <t>Trusting Social</t>
   </si>
   <si>
-    <t>Talosix</t>
+    <t>APS VN Limited Liability Company</t>
+  </si>
+  <si>
+    <t>Sendo.vn</t>
+  </si>
+  <si>
+    <t>Topica English</t>
+  </si>
+  <si>
+    <t>Knock.com</t>
+  </si>
+  <si>
+    <t>Samsung Display Vietnam</t>
   </si>
   <si>
     <t>VIVAS (A Member of VNPT Technology)</t>
   </si>
   <si>
-    <t>APS Vietnam</t>
-  </si>
-  <si>
-    <t>Sendo.vn</t>
-  </si>
-  <si>
-    <t>Topica English</t>
-  </si>
-  <si>
-    <t>Knock.com</t>
-  </si>
-  <si>
-    <t>Samsung Display Vietnam</t>
-  </si>
-  <si>
     <t>Ngân Hàng Á Châu | ACB</t>
   </si>
   <si>
@@ -82,7 +106,58 @@
     <t>EDUBOSTON</t>
   </si>
   <si>
-    <t>AppsFlyer</t>
+    <t>IFI Solution - An NTT Data Company</t>
+  </si>
+  <si>
+    <t>NTT Data Vietnam</t>
+  </si>
+  <si>
+    <t>Techcombank</t>
+  </si>
+  <si>
+    <t>Flexidata</t>
+  </si>
+  <si>
+    <t>SSI Securities Corporation</t>
+  </si>
+  <si>
+    <t>SecuTix</t>
+  </si>
+  <si>
+    <t>OLLI</t>
+  </si>
+  <si>
+    <t>ASWHITE VIETNAM</t>
+  </si>
+  <si>
+    <t>Dimension Data</t>
+  </si>
+  <si>
+    <t>Wakka Data Service</t>
+  </si>
+  <si>
+    <t>ESTEC</t>
+  </si>
+  <si>
+    <t>National Citizen Bank | NCB</t>
+  </si>
+  <si>
+    <t>V3SI</t>
+  </si>
+  <si>
+    <t>Nam Á Bank</t>
+  </si>
+  <si>
+    <t>Alipay (Alibaba Group)</t>
+  </si>
+  <si>
+    <t>Codix</t>
+  </si>
+  <si>
+    <t>RDSoft</t>
+  </si>
+  <si>
+    <t>HCL Technologies Limited</t>
   </si>
   <si>
     <t>Lifestyle Project Management Việt Nam</t>
@@ -91,45 +166,90 @@
     <t>Grasshopper Asia</t>
   </si>
   <si>
+    <t>Annam Group</t>
+  </si>
+  <si>
+    <t>JUST-IN-TIME SOLUTIONS (JITS)</t>
+  </si>
+  <si>
+    <t>Circle K</t>
+  </si>
+  <si>
+    <t>Xoontec</t>
+  </si>
+  <si>
+    <t>Miss Moneypenny Technologies</t>
+  </si>
+  <si>
+    <t>Datalogic Việt Nam</t>
+  </si>
+  <si>
+    <t>Datamart Vietnam (PowerSell)</t>
+  </si>
+  <si>
+    <t>Data Engineers (Java, Cloud)</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Data Engineer (Open level) - Up to $3K</t>
+  </si>
+  <si>
+    <t>Software Engineer (Analytics, Big data)</t>
+  </si>
+  <si>
+    <t>Data Engineer (Java, Scala, Golang)</t>
+  </si>
+  <si>
+    <t>Data Scientist (Python, SQL)</t>
+  </si>
+  <si>
+    <t>5 Bigdata/ Data Scientist (Java, Python)</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>Senior Big Data Developer</t>
+  </si>
+  <si>
+    <t>Data Engineer (Up to 1800$)</t>
+  </si>
+  <si>
+    <t>Senior Data Engineer (Machine Learning)</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist (Machine learning)</t>
+  </si>
+  <si>
     <t>Data Engineer (Senior)</t>
   </si>
   <si>
-    <t>Data Scientist</t>
-  </si>
-  <si>
     <t>Back-End Dev (Python/Perl/Data Analysis)</t>
   </si>
   <si>
-    <t>Data Engineer (Up to 1800$)</t>
-  </si>
-  <si>
     <t>Big Data Engineer ($2000 - $4000)</t>
   </si>
   <si>
-    <t>Senior Data Engineer</t>
-  </si>
-  <si>
-    <t>Senior Data Scientist</t>
+    <t>Data Analyst (SQL, Database)</t>
+  </si>
+  <si>
+    <t>Middle / Senior Data Engineer</t>
+  </si>
+  <si>
+    <t>AI Engineer/Data Engineer (Java/Python)</t>
+  </si>
+  <si>
+    <t>Senior Golang Data Engineer - Remote</t>
+  </si>
+  <si>
+    <t>Data Analyst (Big Data)</t>
   </si>
   <si>
     <t>09 Data/AI/Machine Learning (Java/C++)</t>
   </si>
   <si>
-    <t>Data Analyst (SQL, Database)</t>
-  </si>
-  <si>
-    <t>Middle / Senior Data Engineer</t>
-  </si>
-  <si>
-    <t>AI Engineer/Data Engineer (Java/Python)</t>
-  </si>
-  <si>
-    <t>Senior Golang Data Engineer - Remote</t>
-  </si>
-  <si>
-    <t>Data Analyst (Big Data)</t>
-  </si>
-  <si>
     <t>Data Analyst</t>
   </si>
   <si>
@@ -142,7 +262,76 @@
     <t>Data Quality Assurance Specialist</t>
   </si>
   <si>
-    <t>Senior Big Data Developer</t>
+    <t>08 Java Developers - Up to 35M</t>
+  </si>
+  <si>
+    <t>06 Front-end Developers - Up to 32M</t>
+  </si>
+  <si>
+    <t>05 UI Java Developers (Angular, HTML5)</t>
+  </si>
+  <si>
+    <t>JAVA DEVELOPER (FOR CUSTOMER SERVICE)</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>06 Tester</t>
+  </si>
+  <si>
+    <t>Database Developer (Linux, Oracle, SQL)</t>
+  </si>
+  <si>
+    <t>.NET Developer (Javascript, ERP) =&gt;$1500</t>
+  </si>
+  <si>
+    <t>System Admin (Database, Linux)</t>
+  </si>
+  <si>
+    <t>Oracle DBA / Database Administrator</t>
+  </si>
+  <si>
+    <t>Database Administrator (DBA)</t>
+  </si>
+  <si>
+    <t>Back-end Developer (Python, Database)</t>
+  </si>
+  <si>
+    <t>Database Administrator - MS SQL Server</t>
+  </si>
+  <si>
+    <t>Sr Solution Consultant/ Business Analyst</t>
+  </si>
+  <si>
+    <t>20 Lập trình viên Java (Junior)</t>
+  </si>
+  <si>
+    <t>System Engineer-Linux,Microsoft,Network</t>
+  </si>
+  <si>
+    <t>Front-end Engineer (HTML,CSS,JavaScript)</t>
+  </si>
+  <si>
+    <t>Auto-Tech Engineer (C++/_x0008_SQL/Database)</t>
+  </si>
+  <si>
+    <t>Database Administrator</t>
+  </si>
+  <si>
+    <t>Database Developer (SQL)</t>
+  </si>
+  <si>
+    <t>Site Reliability Engineer (SQL/Database)</t>
+  </si>
+  <si>
+    <t>Junior Database Administrator (Oracle)</t>
+  </si>
+  <si>
+    <t>Oracle SCM Consultant (Database, SQL)</t>
+  </si>
+  <si>
+    <t>Java Developer (Database, J2EE)</t>
   </si>
   <si>
     <t>Database Administrator (MySQL, Linux)</t>
@@ -151,42 +340,84 @@
     <t>Backend Engineer(Python,Database,MySQL)</t>
   </si>
   <si>
+    <t>3 Testers (QA QC, Database) (4m - 2y)</t>
+  </si>
+  <si>
+    <t>IT Application Dev (C#, C++, Database)</t>
+  </si>
+  <si>
+    <t>Back-End Dev (Golang, Python, Database)</t>
+  </si>
+  <si>
+    <t>Software Tester (QA QC, Linux)</t>
+  </si>
+  <si>
+    <t>04 PHP Developer (2 years, $700-1500)</t>
+  </si>
+  <si>
+    <t>Tan Trao, District 7, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Duy Tan, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>Le Dai Hanh St, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Tran Quang Khai - IMC building, District 1, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Keangnam Landmark, Nam Tu Liem, Ha Noi</t>
+  </si>
+  <si>
+    <t>Nguyen Trai, District 1, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>FPT Cau Giay Building, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>Le Thi Hong Gam, District 1, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Keangnam Landmark 72, Pham Hung, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh</t>
+  </si>
+  <si>
     <t>Ngô Đức Kế, District 1, Ho Chi Minh</t>
   </si>
   <si>
+    <t>2A Phan Thuc Duyen Str., Ward 4, Tan Binh, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Ham Nghi, District 1, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Nguyen Dang Giai, District 2, Ho Chi Minh</t>
+  </si>
+  <si>
     <t>Tran Quang Khai, District 1, Ho Chi Minh</t>
   </si>
   <si>
-    <t>Duy Tan, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>Keangnam Landmark 72, Pham Hung, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>Ham Nghi, District 1, Ho Chi Minh</t>
-  </si>
-  <si>
-    <t>Ho Chi Minh</t>
+    <t>Đường Tân Thuận (Tòa nhà FPT Tân Thuận), District 7, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Phương Mai, Dong Da, Ha Noi</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>Other, Ha Noi</t>
   </si>
   <si>
     <t>Hoang Quoc Viet, Cau Giay, Ha Noi</t>
   </si>
   <si>
-    <t>Nguyen Dang Giai, District 7, Ho Chi Minh</t>
-  </si>
-  <si>
-    <t>Đường Tân Thuận (Tòa nhà FPT Tân Thuận), District 7, Ho Chi Minh</t>
-  </si>
-  <si>
-    <t>Phương Mai, Dong Da, Ha Noi</t>
-  </si>
-  <si>
-    <t>Ha Noi</t>
-  </si>
-  <si>
-    <t>Other, Ha Noi</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Minh Khai, District 3, Ho Chi Minh</t>
   </si>
   <si>
@@ -196,13 +427,217 @@
     <t>Master Building, 41- 43 Trần Cao Vân, Phường 6, District 3, Ho Chi Minh</t>
   </si>
   <si>
-    <t>Others</t>
+    <t>Nguy Nhu Kon Tum, Thanh Xuan, Ha Noi</t>
+  </si>
+  <si>
+    <t>Xuan Thuy, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>Ton Duc Thang, District 1, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Bà Triệu, Hai Ba Trung, Ha Noi</t>
+  </si>
+  <si>
+    <t>33/5A Đặng Văn Ngữ, Phu Nhuan, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Huệ, District 1, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Melody 2 Tower – N1, Dien Bien Phu, Binh Thanh, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Ngô Quyền, Hoan Kiem, Ha Noi</t>
+  </si>
+  <si>
+    <t>173A Nguyễn Văn Trỗi, Phường 11, Phu Nhuan, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>AB Tower Level 20, 76A Le Lai Street, District 1, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Quang Trung Str, Hai Ba Trung, Ha Noi</t>
+  </si>
+  <si>
+    <t>Centre Point Building, Phu Nhuan, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Nguyen Van Troi, Phu Nhuan, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>468/13 Phan Van Tri, Ward 7, Go Vap, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Bà Triệu, Hoan Kiem, Ha Noi</t>
+  </si>
+  <si>
+    <t>Van Kiep, Binh Thanh, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Cach Mang Thang 8, District 3, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Minh Khai, District 1, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Cong Hoa, Tan Binh, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>51 Đường T4B, Tan Phu, Ho Chi Minh</t>
   </si>
   <si>
     <t>Pasteur, District 3, Ho Chi Minh</t>
   </si>
   <si>
     <t>10th floor, Dreamplex, 21 Nguyen Trung Ngan, District 1, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Hai Ba Trung, District 1, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Thọ, District 7, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Tôn Đản, District 4, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Hoang Van Thu, Phu Nhuan, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Tran Quang Khai, P.Tan Dinh, District 1, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Datalogic Vietnam, District 9, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>5F, Tòa nhà B &amp; L, 119-121 Ung Văn Khiêm, P.25, Binh Thanh, Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>#MoMo is the market leader in mobile payments in Vietnam. We strive to make all transactions fast, easy and joyful. On a daily basis, we serve millions of transactions for a growing customer base of over 9 million people. That includes 6 million mobile users and 3 million offline users using our 5,000 agents nationwide. MoMo's service is especially helpful in rural areas where banking services are less prevalent.
+Some of our wins recently:
+Upgrading our core system to serve millions of users.
+Building a payment gateway so that thousands of merchants can easily integrate themselves with MoMo, with very little support.
+Integrating with over 2000 different services, all in one app!
+Driving hundred thousands of money transfers between friends and families, every day.
+Do you want to:
+work with big-name partners from all over the world? We have top partners from Europe and Silicon Valley!
+take on challenges? MoMo is one of a few apps in Vietnam that serves millions of users.
+be alongside with other talents? Our teams consist of people who has worked for IBM, Twitter &amp; Google.
+use the product that you build every day? It’s a joy!
+ROLES &amp; RESPONSIBILITIES:
+Building pipelines that aggregate data from many different sources, providing valuable insights for the business.
+Designing solutions that provide analytics in real-time.
+Growing our Data Platform so that new data requirements can be done quickly.
+Creating more tools and frameworks for processing big data.
+Building metrics and monitoring system to keep data platform within SLAs.
+Collaborating with our AI &amp; Business Intelligence teams.
+Contributing to a data-driven culture</t>
+  </si>
+  <si>
+    <t>We are looking for a Data Scientist to analyse our company’s vast amounts of data. Your works including doing
+statistical analysis, applying data mining techniques, machine learning algorithms to build high quality predictive analytics model and decision support systems. The outcome shall support our product, sales, and marketing departments with customers insights and knowledge based on their activities &amp; behaviour in the digital world. You are required to have sufficient skills to work with large data sets, using a variety of tools, to build, implement and evaluation of the models. You are also expected to have ability to drive business results with you data-driven mindset.
+Responsibilities
+Provide strategic ideas and analytics concept to understand customer insights from their digital data (social media data, transaction data…)
+Build and evaluation of predictive analytics models using state-of-the-art data mining techniques and machine-learning algorithms
+Doing ad-hoc analysis and presenting results in a clear manner
+Work closely with Data Engineering team to build, deploy and maintain data models on our company’s infrastructure.
+Collaborate with engineering and product development teams
+Propose solutions and strategies to business challenges</t>
+  </si>
+  <si>
+    <t>Why should you join us?
+Handle end-to-end projects in various scales
+Work with experts in Data Analytics &amp; Science field
+Explore and manage large amount of data sets taken from real business products and other sources
+Job Description:
+Design and development of our data analytics platform, including data management, system architectures, and analytics tools
+Ensure platform features are prioritized and released timely
+Build out scalable and reliable ETL pipelines and processes to ingest data from a large number and variety of data sources
+Build, deploy and manage services and tools for data products and monitoring, ensuring their usability and performance</t>
+  </si>
+  <si>
+    <t>We have an existing cloud-based, highly scalable, all-in-one advertising platform where Marketers, Media Owners and Agencies can easily create, optimize &amp; publish Dynamic Ads world wide. Product website: https://xpo.knorex.com/
+You will work closely with our cross-country teams located regionally to learn about the business and technical analytics requirements and translate them into production system. Owing to the large data and real-time stream of data, coming up with efficient and pragmatic solutions and algorithms to the challenging problems will be come imperative. You will work with other team members to ensure the timely delivery of the systems and solutions and critically assess and monitor the efficiency and/or effectiveness of the developed solution.
+Key Responsibilities
+Develop clever algorithms and pragmatic solutions to our data analytics problems.
+Develop metrics to measure the outcome/impact of your introduced solutions.
+Develop and maintain API to support other teams in retrieving the metrics
+Work with other members to implement and integrate into our existing systems.
+Document and improve the solutions over time.
+Evaluate and identify new technologies for implementation.
+Communicate with our business and technical teams to understand the analytics requirements.
+Respond and follow up to incorporate feedback and draw new insights.
+Prioritize tasks to meet multiple deadlines.</t>
+  </si>
+  <si>
+    <t>- Tham gia các dự án ứng dụng trí tuệ nhân tạo trong lĩnh vực an ninh mạng, xây dựng các giải pháp bảo mật nhằm phát hiện tấn công mạng.
+- Cùng team tham gia vào các cuộc thi hấp dẫn về AI trên Kaggle</t>
+  </si>
+  <si>
+    <t>You will help shape the future of what we built at Christinas, you will get to work with new ideas, novel problems, you will get to design things from scratch, and see your insights turned into reality, then prove the existence of these realities with proper scientific tests.
+The suitable candidate will have a background in a quantitative or technical field, will have experience working with strong data sets, and will have some experience in data-driven decision making. You are focused on results, a self-starter, and have demonstrated success in using analytics to drive the understanding, growth, and success of a product.
+What can you expect to be doing…
+Work closely with various key business stakeholders and team to understand our operation and to ensure that data science projects fulfill the evolving needs of the team.
+Design data product that align with the team’s needs.
+Create data architectures, data models and algorithms.
+Built custom data sets.
+Propose and determine key product metrics, monitor them and understand root causes of changes in metrics.
+Design and evaluate experiments.
+Communicate state of business, experiment results in a precise and easy to understand to the teams.
+Spread best practices to the teams.</t>
+  </si>
+  <si>
+    <t>Design and build advanced applications for the Windows 10 platform
+Collaborate with cross-functional teams to define, design, and ship new features
+Work with outside data sources and API’s
+Work with onsite and customer to clear requirement
+Unit-test code for robustness, including edge cases, usability, and general reliability
+Assist in automation test setup and testing protocol
+Work on bug fixing and improving application performance
+Continuously discover, evaluate, and implement new technologies to maximize development efficiency
+FOR SENIOR LEVEL
+Coach other junior team members to help them reach their maximum potential</t>
+  </si>
+  <si>
+    <t>Who are we looking for?
+Rebels, internet believers, early adopters, product passionate and most importantly – people who thrive in a fun and dynamic culture. 
+Description of Job
+Delivery of enterprise data solutions with comprehension in Finance, Fleet, Marketing, Product, Performance, Reliability and Scalability.
+Work with Product Team to create KPI reports to drive company performances.
+Understand company business rules and elaborate actionable and trackable metrics driving business teams decisions.
+Automation and Visualization of reports and charts required by the business teams.
+Provide and implement technical solutions for business problems. Analyze and troubleshoot data conversion programs at an operational and technical levels.</t>
+  </si>
+  <si>
+    <t>The core of AppsFlyer is our data currently over 30 billion events a day and like our company, our data is growing rapidly. Managing and providing analytics for this data is a huge service we provide to our clients. 
+Working with this enormous volume of data begins with massive ETL pipelines built using modern industry standard tooling such as Kafka, S3, Yarn/Hadoop and especially Spark. Then providing access to this data requires employing multiple database technologies each suited to the specific analytics tasks. The databases we use are constantly evolving but currently include BigQuery, MemSQL, HBase, Aerospike, Druid, Redis and more. We are big believers in working with the right tool for the right job, including in programming languages. We run a truly polyglot shot with Scala, Clojure, Python, Ruby, Go and JavaScript being especially common here at AppsFlyer. The extreme growth rate of our data and client base means that solutions need to be designed to handle 10X growth or more. Supporting this rapid pace of growth and polyglot development is a sophisticated automated deployment and scaling infrastructure that deploys docker containers into multiple cloud environments.</t>
+  </si>
+  <si>
+    <t>– Thiết kế và phát triển sản phẩm dựa trên nền tảng dữ liệu lớn.
+– Tích hợp dữ liệu từ nhiều nguồn khác nhau.
+– Lập trình ETL.
+– Theo dõi chất lượng sản phẩm và đề xuất các phương án cải thiện cơ sở hạ tầng cần thiết.</t>
+  </si>
+  <si>
+    <t>Take ownership for ensuring that ML code, model prototypes and pipelines are deployed successfully into production that solves a variety of ML-based use cases for our healthcare customers.
+Design and build secure data pipeline solution architectures that consume high dimensional structured, unstructured and sensitive medical data, such as medical records, clinical notes, and others.
+Deploy solutions and/or products either to customer’s cloud or on-premise infrastructure leveraging the full spectrum of cloud services, or Talosix’s platform.
+Collaborate with data scientists to automate model training, testing and deployment via ML continuous delivery pipelines.
+Provide solution design expertise and implement features of Talosix’s cloud platform that will allow our data scientists and engineers to accelerate development &amp; deployment of prototypes and products.
+Troubleshoot client production issues that arise.
+Be a hands-on team player working collaboratively with our U.S and HCMC engagement managers, project managers, data scientists and clients to deliver prototypes and other project deliverables.
+Partner with U.S. product leadership &amp; delivery team to identify which prototypes can be converted and scaled into re-usable products.</t>
+  </si>
+  <si>
+    <t>Design, build and deploy prototypes that solve a variety of NLP-based use cases. These prototypes can range from extracting medical information from clinical notes to predicting patient re-admission rates that have direct impact on revenue and bottom line.
+Take the lead to build &amp; maintain language representation models trained on clinical notes. Given a clinical note as input this model, for example, will be able to extract information such as medications, diagnoses, symptoms, treatments, and other entities.
+Grow, lead and coach a small team of data scientists in HCMC.
+Evaluate off-the-shelf medical NLP libraries/products, both open-source and commercial, such as Amazon Comprehend Medical, by building &amp; testing proof of concepts.
+Work with high dimensional and protected health related data.
+Stay up to date on the latest NLP research publications.
+Be a hands-on team player working collaboratively with our U.S and HCMC client engagement managers, project managers and data engineers to deliver model prototypes and other project deliverables.
+Partner with U.S. product leadership &amp; delivery team to identify which prototypes can be converted and scaled into re-usable products on our platform.</t>
   </si>
   <si>
     <t>Cho Tot technology foundation is growing and expanding to power our next level of growth, serving ten of millions of Vietnamese via our digital products. Our engineering team are building robust platform, automations and data engineering pipeline that enabling continuous explorations in product innovations.
@@ -214,6 +649,29 @@
 Collaborates cross-functionally to build and convert algorithms and data models into production systems to support new product innovations.
 Leverages edge technologies and programming skills in Python, Java and SQL to creatively solve complex business problems.
 Design and implement custom packages to answer challenging analytical problems. Applies knowledge of systems and products to advise on analytical works across different business units.</t>
+  </si>
+  <si>
+    <t>Build methods for data collection and analysis on big telecommunications system/IoT deployed by company
+Customize the new features of the telecom monitoring network system/IP required by the projects implemented for big customers in Vietnam such as Mobifone, VNPT, Vinaphone, Viettel, FPT, etc.
+Develop automation tools for deploying big network projects.
+Extensive research into automation solutions such as Ansible/ SaltStack and SDN (Software Defined Networking) solutions from big vendors around the world, serving the telecom network and datacenter operations of customers</t>
+  </si>
+  <si>
+    <t>Trusting Social is looking for a passionate and committed Big Data Engineer who will work on the Data processing platform (Trust-Data) for collecting, storing, processing, and analysing huge data sets. The primary focus will be on designing and developing optimal solutions to launch and use them for the deep analysis by the Data Scientists of Trusting Social. Post the launch the ownership and onus of maintaining, enhancing, and monitoring lies with you. You will also be responsible for integrating them with the architecture used across the company. Why is this job key to Trusting Social - The data sets that are ingested and transformed by the Data engineering team form the crux of the source for the Data scientists at Trusting Social, who would then run their complex algorithms and routines on the quality output enabled by the Trust-Data Engineering team.
+Key Job Responsibilities :
+A Data engineer in TrustinSgocial works on the data pipeline infrastructure that is veritably the backbone of our business. In a day's job you would be writing elegant functional SCALA code to crunch TBs of data on Hadoop clusters, mostly using Spark. In a week's job, you would be owning a data pipeline deployment to clusters : on-prem or AWS or Azure or more. In a month's job, you would be managing Hadoop clusters right from security to reliability to HA. Did we mention we are building a pluggable,unified data-lake from scratch? Time to time you have new challenges for automating and scaling tasks for Data science team. We constantly look to improve our framework and pipelines, hence learning on the job is sort of a given. This is the big picture of our big data system.
+Our expertise and requirements include but are not limited to Spark, Scala, HDFS, Yarn, Hive, Kafka, Distributed Systems, Python, Datastores (Relational and NoSql) and Airflow.</t>
+  </si>
+  <si>
+    <t>Data Analyst Job Overview
+Be responsible for conducting full lifecycle of an analysis, from data collection to proposal/recommendation based on respective analysis. Develop analysis and reporting capabilities. Monitor performance and quality control plans to identify improvements.
+Responsibilities
+• Data mining, working with PL/SQL (interacting on Oracle SQL Developer &amp; SQL Server Management);
+• Responsible for Client &amp; internal reports on a regular basis;
+• Ad-hoc analysis to identify, analyze, and interpret trends or patterns in complex data sets;
+• Supporting implementation of collection strategy/plan/system;
+• Collection System/Application management;
+• Other tasks per assignment by line manager.</t>
   </si>
   <si>
     <t>Knorex develops a cloud-based, highly scalable, all-in-one advertising and marketing platform called Knorex XPO™ (https://xpo.knorex.com/) where Advertisers, Agencies and Publishers can easily create, optimize &amp; publish Dynamic Ads worldwide with speed and ease. As part of the platform offering, anyone can launch performance campaign and traffic their ads programmatically via automated buying through our in-house media planner, real-time bidder and optimizer. Owing to the large and real-time stream of data, we would have to devise efficient algorithms to tackle the challenges. We are seeking for a Data Scientist with the zest and passion to join us in developing the platform. You will be working with cross-disciplinary teams including Data Engineers, Performance Specialists and Software Engineers to build a highly intelligent and scalable system that can handle billions of requests per day, all delivered within milliseconds.
@@ -230,65 +688,6 @@
 Prioritize tasks to meet multiple deadlines.</t>
   </si>
   <si>
-    <t>Build methods for data collection and analysis on big telecommunications system/IoT deployed by company
-Customize the new features of the telecom monitoring network system/IP required by the projects implemented for big customers in Vietnam such as Mobifone, VNPT, Vinaphone, Viettel, FPT, etc.
-Develop automation tools for deploying big network projects.
-Extensive research into automation solutions such as Ansible/ SaltStack and SDN (Software Defined Networking) solutions from big vendors around the world, serving the telecom network and datacenter operations of customers</t>
-  </si>
-  <si>
-    <t>– Thiết kế và phát triển sản phẩm dựa trên nền tảng dữ liệu lớn.
-– Tích hợp dữ liệu từ nhiều nguồn khác nhau.
-– Lập trình ETL.
-– Theo dõi chất lượng sản phẩm và đề xuất các phương án cải thiện cơ sở hạ tầng cần thiết.</t>
-  </si>
-  <si>
-    <t>Trusting Social is looking for a passionate and committed Big Data Engineer who will work on the Data processing platform (Trust-Data) for collecting, storing, processing, and analysing huge data sets. The primary focus will be on designing and developing optimal solutions to launch and use them for the deep analysis by the Data Scientists of Trusting Social. Post the launch the ownership and onus of maintaining, enhancing, and monitoring lies with you. You will also be responsible for integrating them with the architecture used across the company. Why is this job key to Trusting Social - The data sets that are ingested and transformed by the Data engineering team form the crux of the source for the Data scientists at Trusting Social, who would then run their complex algorithms and routines on the quality output enabled by the Trust-Data Engineering team.
-Key Job Responsibilities :
-A Data engineer in TrustinSgocial works on the data pipeline infrastructure that is veritably the backbone of our business. In a day's job you would be writing elegant functional SCALA code to crunch TBs of data on Hadoop clusters, mostly using Spark. In a week's job, you would be owning a data pipeline deployment to clusters : on-prem or AWS or Azure or more. In a month's job, you would be managing Hadoop clusters right from security to reliability to HA. Did we mention we are building a pluggable,unified data-lake from scratch? Time to time you have new challenges for automating and scaling tasks for Data science team. We constantly look to improve our framework and pipelines, hence learning on the job is sort of a given. This is the big picture of our big data system.
-Our expertise and requirements include but are not limited to Spark, Scala, HDFS, Yarn, Hive, Kafka, Distributed Systems, Python, Datastores (Relational and NoSql) and Airflow.</t>
-  </si>
-  <si>
-    <t>Take ownership for ensuring that ML code, model prototypes and pipelines are deployed successfully into production that solves a variety of ML-based use cases for our healthcare customers.
-Design and build secure data pipeline solution architectures that consume high dimensional structured, unstructured and sensitive medical data, such as medical records, clinical notes, and others.
-Deploy solutions and/or products either to customer’s cloud or on-premise infrastructure leveraging the full spectrum of cloud services, or Talosix’s platform.
-Collaborate with data scientists to automate model training, testing and deployment via ML continuous delivery pipelines.
-Provide solution design expertise and implement features of Talosix’s cloud platform that will allow our data scientists and engineers to accelerate development &amp; deployment of prototypes and products.
-Troubleshoot client production issues that arise.
-Be a hands-on team player working collaboratively with our U.S and HCMC engagement managers, project managers, data scientists and clients to deliver prototypes and other project deliverables.
-Partner with U.S. product leadership &amp; delivery team to identify which prototypes can be converted and scaled into re-usable products.</t>
-  </si>
-  <si>
-    <t>Design, build and deploy prototypes that solve a variety of NLP-based use cases. These prototypes can range from extracting medical information from clinical notes to predicting patient re-admission rates that have direct impact on revenue and bottom line.
-Take the lead to build &amp; maintain language representation models trained on clinical notes. Given a clinical note as input this model, for example, will be able to extract information such as medications, diagnoses, symptoms, treatments, and other entities.
-Grow, lead and coach a small team of data scientists in HCMC.
-Evaluate off-the-shelf medical NLP libraries/products, both open-source and commercial, such as Amazon Comprehend Medical, by building &amp; testing proof of concepts.
-Work with high dimensional and protected health related data.
-Stay up to date on the latest NLP research publications.
-Be a hands-on team player working collaboratively with our U.S and HCMC client engagement managers, project managers and data engineers to deliver model prototypes and other project deliverables.
-Partner with U.S. product leadership &amp; delivery team to identify which prototypes can be converted and scaled into re-usable products on our platform.</t>
-  </si>
-  <si>
-    <t>Data Engineer
-Nghiên cứu, triển khai các hệ thống xử lý dữ liệu lớn Big Data &amp; các công nghệ xử lý dữ liệu.
-Đảm bảo HA, load balancing, scale hệ thống.
-Làm việc với đối tác nước ngoài để tích hợp/triển khai thử nghiệm các giải pháp công nghệ mới.
-AI/Machine Learning
-Tham gia các dự án khai phá dữ liệu trên tập dữ liệu lớn của nhà mạng viễn thông như phân tích, dự đoán, gợi ý …
-Tham gia các dự án phân tích hình ảnh cho camera giám sát như nhận diện khuôn mặt, quản lý giao thông, giám sát hành vi…
-Tham gia phát triển các dự án NLP/Chatbot</t>
-  </si>
-  <si>
-    <t>Data Analyst Job Overview
-Be responsible for conducting full lifecycle of an analysis, from data collection to proposal/recommendation based on respective analysis. Develop analysis and reporting capabilities. Monitor performance and quality control plans to identify improvements.
-Responsibilities
-• Data mining, working with PL/SQL (interacting on Oracle SQL Developer &amp; SQL Server Management);
-• Responsible for Client &amp; internal reports on a regular basis;
-• Ad-hoc analysis to identify, analyze, and interpret trends or patterns in complex data sets;
-• Supporting implementation of collection strategy/plan/system;
-• Collection System/Application management;
-• Other tasks per assignment by line manager.</t>
-  </si>
-  <si>
     <t>Collaborate and understand the requirements from Data Analyst/ Business Users and turn into technical insight.
 Investigate source of data and realize ETL method to collect data automatically
 Assess, organize data warehouse how to stable, correct and easy to access and manage
@@ -321,6 +720,16 @@
 - Phân tích thống kê: tìm ra nguyên nhân lỗi cũ, dự đoán nhân tố gây ra loại hình lỗi mới;
 - Đưa ra phương pháp cải tiến, xử lý triệt để sự cố cũ, ngăn chặn sự cố mới phát sinh ảnh hưởng đến chất lượng sản phẩm.
 - Đào tạo và phát triển nhân lực trong mảng phân tích dữ liệu</t>
+  </si>
+  <si>
+    <t>Data Engineer
+Nghiên cứu, triển khai các hệ thống xử lý dữ liệu lớn Big Data &amp; các công nghệ xử lý dữ liệu.
+Đảm bảo HA, load balancing, scale hệ thống.
+Làm việc với đối tác nước ngoài để tích hợp/triển khai thử nghiệm các giải pháp công nghệ mới.
+AI/Machine Learning
+Tham gia các dự án khai phá dữ liệu trên tập dữ liệu lớn của nhà mạng viễn thông như phân tích, dự đoán, gợi ý …
+Tham gia các dự án phân tích hình ảnh cho camera giám sát như nhận diện khuôn mặt, quản lý giao thông, giám sát hành vi…
+Tham gia phát triển các dự án NLP/Chatbot</t>
   </si>
   <si>
     <t>Phát triển cấu trúc điều khiển trong một môi trường đơn giản để đảm báo tính chính xác và chất lượng của dữ liệu thông qua tất cả các kênh dữ liệu.
@@ -381,8 +790,225 @@
 • Other QA and Data entry related tasks may be assigned by the director.</t>
   </si>
   <si>
-    <t>The core of AppsFlyer is our data currently over 30 billion events a day and like our company, our data is growing rapidly. Managing and providing analytics for this data is a huge service we provide to our clients. 
-Working with this enormous volume of data begins with massive ETL pipelines built using modern industry standard tooling such as Kafka, S3, Yarn/Hadoop and especially Spark. Then providing access to this data requires employing multiple database technologies each suited to the specific analytics tasks. The databases we use are constantly evolving but currently include BigQuery, MemSQL, HBase, Aerospike, Druid, Redis and more. We are big believers in working with the right tool for the right job, including in programming languages. We run a truly polyglot shot with Scala, Clojure, Python, Ruby, Go and JavaScript being especially common here at AppsFlyer. The extreme growth rate of our data and client base means that solutions need to be designed to handle 10X growth or more. Supporting this rapid pace of growth and polyglot development is a sophisticated automated deployment and scaling infrastructure that deploys docker containers into multiple cloud environments.</t>
+    <t>Làm việc trong dự án thuộc hướng công nghệ được ưa chuộng hiện nay như IoT, Big Data, ITS (lntelligent Transport System)…
+Khách hàng đến từ Pháp, Italia, Nhật Bản, Đức, Thụy Sỹ, Đan mạch.
+Văn phòng đẹp. Môi trường chuyên nghiệp, công bằng, thân thiện.</t>
+  </si>
+  <si>
+    <t> Maintain and support customer for at least one project was developed/implemented. 
+ Communicate directly to customer to investigate and solve issue.
+ Contribute to all aspects of the product development process, from specification and design, throughout integration, release and maintenance.
+ Participate in the decision making process regarding the selection, customization and support of the array of software engineering tools used by the engineering group; i.e. version control, change management, knowledge repository, JAVA, etc.
+ Lead junior customer supporter and review the quality of their coding and implementation. 
+ Use common development tools such as compilers, debuggers, profiling tools and source control system as prescribed by the engineering standards</t>
+  </si>
+  <si>
+    <t>• Work with dynamic and forward thinking teams in software development projects. Design, code, debug, test components or modules.
+• Build up valuable solutions in diversified business domains: Banking, Logistics, Manufacture, E-commerce, Finance, Business Intelligence, Healthcare, etc.</t>
+  </si>
+  <si>
+    <t>Giám sát và khắc phục sự cố của Cơ sở dữ liệu, SQL
+Phát triển, vận hành và quản lý Cơ sở dữ liệu
+Thiết lập, phân quyền người dùng thao tác với Cơ sở dữ liệu
+Quản lý chính sách, qui trình Cơ sở dữ liệu  trình để đảm bảo an ninh
+Quản lý sao lưu / khôi phục Cơ sở dữ liệu
+Quản lý công việc tự động hóa Cơ sở dữ liệu
+Hỗ trợ, kết hợp với lập trình viên để xây dựng hệ thống Cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>We are forming a new team and need resources at many levels.
+Our company motto is to keep building a stronger and a better company, provide better services to customers and create a better-balanced work-life for our staff. To do so we really need appropriate members.
+Responsibility
+You will have opportunity to work with one of the top world CRM leaders: bpm'online. This is a business process automation + CRM software, which directly competes with Salesforce and Dynamics CRM. 
+Combine with Solution Consultants and Functional Consultants to deliver customized solutions to customer, both domestic and international.
+Investigate and apply core technology used for development platform;
+Develop ecosystem products which supports the CRM, in order to provide best experience to customer and reduce time to release.
+Support, maintain and document software functionality;
+Collaborate in a cross-functional Agile team, with agility mindset;
+Coordinate and support software testing and quality assurance;
+Be up to date with industry innovations, technology, and techniques;
+Traveling domestically and internationally when required;</t>
+  </si>
+  <si>
+    <t>Thiết kế và thực hiện các hạng mục sau:
+Xác định cấu hình yêu cầu phần cứng cho các ứng dụng nội bộ; bao gồm đánh giá quy mô thích hợp và yêu cầu chi tiết;
+Xác minh tính hợp lý của yêu cầu phần cứng từ nhà cung cấp khi đưa ra các giải pháp cài đặt trong công ty.
+Tài liệu hóa thiết kế với chi tiết của các thông số hệ thống và yêu cầu, sơ đồ, cơ chế bảo vệ, và kiểm kê thiết bị;
+Xác định cách tiếp cận tốt nhất cho yêu cầu bảo vệ hệ thống như cân bằng tải, chuyển đổi dự phòng, bảo vệ trang từ xa, v.v.
+- Hỗ trợ vận hành:
+Xác định cơ chế giám sát hiệu suất và ngoại lệ của các thiết bị hệ thống;
+Xác định cơ chế phát hiện bất kỳ vấn đề xảy ra trên các thiết bị của công ty;
+Thực hiện làm sạch hệ thống đảm bảo môi trường làm việc lành mạnh;
+Xác định hiệu quả khôi phục các thiết bị tương ứng bằng dữ liệu sao lưu;
+Thực hiện các hoạt động quản trị người dùng trên cấp hệ thống nhưng không bao gồm quản trị người dùng ở cấp ứng dụng;
+Xác định / thiết kế các báo cáo hoạt động cần thiết để tóm tắt tình trạng của hệ thống các thiết bị phục vụ nhu cầu quản lý.
+- Xác định và giám sát năng lực và sử dụng các thiết bị, đánh giá nâng cấp cho các thiết bị sử dụng quá tải
+- Xác định phương pháp bảo vệ thiết bị hệ thống, thực hiện bảo vệ, thực hiện chuẩn đoán thường xuyên phòng bị tấn công virus, xâm nhập và spam;
+- Quản lý tài liệu cấu hình cho từng thiết bị, lưu trữ các tham số cấu hình mới nhất, lịch sử thay đổi về các tham số trong mỗi thiết bị và phương pháp thay đổi tham số, một phần của công việc Kiểm soát Cấu hình và Kiểm soát Phiên bản trong bộ phận;
+- Đảm bảo hoạt động và phục hồi hệ thống theo SLA đã được đồng ý.</t>
+  </si>
+  <si>
+    <t>As an Oracle DBA/Database Administrator you will be in the middle of the Cloud Engineering team in Vietnam, maintaining, deploying, monitoring the production and integration environments for SecuTix, our cloud ticketing solution.
+In close contact with the Cloud Engineering team in Switzerland, you will:
+Proceed to the daily monitoring of (Oracle, Postgresql) both in Production and Integration Environments
+Resolve issues on both environments.
+Support Oracle database services to ensure the highest standards of availability, resilience, integrity, security, and performance
+Support the development team (50 people), with the Cloud Engineering team.
+Monitor Health on database and reports, provide improvements, performance analysis, tuning, recommendations.
+Participate to transitions works, transformation and architecture projects: There will be many architecture improvements and technical challenges, we are going forward on AWS Cloud and we are a growing IT company.
+Understand SecuTix data model, associated business logic and customer data.
+Have high speed Interactions with our global team in Vietnam and Switzerland, Spain.</t>
+  </si>
+  <si>
+    <t>- Cài đặt, cấu hình, nâng cấp và bảo trì hệ thống với các hệ thống Quản trị cơ sở dữ liệu (DB2, Oracle, MS SQL Server, ...)
+- Xử lý và khắc phục các sự cố liên quan đến Database.
+- Theo dõi và tối ưu hóa hiệu năng của Database.
+- Xây dựng và thiết kế các vấn đề bảo mật Database.
+- Thực hiện việc sao lưu và phục hồi Cơ sở dữ liệu.
+- Vận hành và quản trị các máy chủ cơ sở dữ liệu.
+- Thực hiện các công việc được giao khác theo sự phân công của quản lý cấp trên.</t>
+  </si>
+  <si>
+    <t>The Back End Developer is responsible for building back end applications to support the company’s wide range of services and products:
+IoT devices.
+Data collection and analytics.
+Video/Audio streaming
+VoIP calls and messaging
+The Back End Developer is also expected to work closely with DevOps to ensure that their applications run and integrate well with other part of the system.</t>
+  </si>
+  <si>
+    <t>As a MS SQL Server DBA, your responsibilities include the followings:
+► Perform the installation, configuration, administration and maintenance of databases in MS SQL Server environments.
+► Monitor services, plan capacity and fine tuning of database performance.
+► Manage data backup &amp; restoration, database security and audit requirements.
+► Assist the developers in writing SQL script, creating Store Procedure, Function, Table, View. etc.</t>
+  </si>
+  <si>
+    <t>As a Solution Consultant, you will hold responsible for the successful delivery and development of consultancy management, technical solution and building solution offerings in the assigned Solution Group. You will work closely with the team to deliver the solution that meets all the business, technical and quality requirements from client. Your solution must content all deliverables and solution pricing. You will outline the required support resources , comply with implementation methodology for all required documentation in term of solution delivery.
+To be successful in this job, you should have a strong interpersonal, communication, client service mindset, along with organizational skills, with excellent experience in offering framework with knowledge of Cisco products.
+Your Report line: Manager, TSS and Solutions
+Principal Accountabilities:
+[ Solution consultancy ]
+Work close with client and team to develop and integrate solution(s)
+The solution must be complied with Dimension Data strategic direction
+Provides leadership to all Solution Group resources
+Supports Client with business solution creation
+Provides Client with value add future advanced technologies direction, benefits, roadmap, ROI (Return On Investment) literature and detail
+[ Working with Account Managers and Clients ]
+Provides Client, Account Managers with an estimated cost of ownership for proposed solutions and technical solution development
+Assist and collaborate with Client to provide assistance with comprehensive understanding of client requirements and pursue to solution deployment
+Supports, assist account management team, sales specialist to attends client calls by engaging in pre-sales related activities e.g. POC(proof of concept, demonstration, technical proposal development)
+Works with Client to present to client the Technical solutions and creates a greater understanding of Dimension Data service offerings and capabilities
+Ensures the proposed Technical solution is comprehensively integrated, operationally sound deliverable, complying the predefined quality and best practices standards and is feasible for delivery delivered within allowable time and cost and meets business requirements
+Works with the assigned subject matter resources to plan, cost, price, and document the Business Process and or Technical solution
+Provides assistance in resolving issues that are pertinent to the Business Process and or Technical solution development
+[ Team management ]
+Actively participates in pursuit leadership team
+Ensures identified risks have a mitigation plan
+Ensures hand-off of Assumptions, Issues Risk, and Action Items to delivery teams upon closure of the deal
+Ensures the Solution Development Process is followed. Any issues raised are tracked and brought to closure.
+Assists Client in Business Process and or Technical content of client-facing documents 
+Executes hand-over of the Technical solution to MS support teams with the official Client acknowledge technical project documentation
+Provides feedback to Service Line offering and management on the usability of the tools, templates, procedures, sales readiness, new capabilities, etc.</t>
+  </si>
+  <si>
+    <t>- Contribute to all aspects of the product development process, from specification and design, throughout integration, release.
+- Participate in the decision making process regarding the selection, customization and support of the array of software engineering tools used by the engineering group; i.e. version control, change management, knowledge repository, JAVA, UML modelling, etc.
+- Create quality source code; document code and procedures thoroughly as prescribed by the engineering standards.</t>
+  </si>
+  <si>
+    <t>We are seeking an experienced TS Implementation Engineer (L3) who can provide technical support to Dimension Data clients. This includes remotely supporting clients within Service Level Agreements (SLAs) to install and configure software and hardware, resolve incidents, perform root cause analysis and adhere to any related processes such as change management. The TS Implementation Engineer (L3) is involved in more complex environments for installation, configuration and fault management.
+LOCATION: Danang, Ho Chi Minh, Ha Noi
+RESPONSIBILITIES
+Ensure client satisfaction
+To work closely with clients, displaying good client engagement skills and engaging at a high level of professionalism.
+They are required to interact with clients on site to meet complex requirements of a solution. Problems and issues that cannot be resolved are escalated to the relevant third parties.
+Ability to travel to clients’ premises, occasional night shifts to complete installation, configuration; to oversee and support TS Implementation Engineers (L1) and (L2).
+      2. Compile and maintain project administration
+To demonstrate project management and administration ability. They write reports and proposals and project documentation. TS Implementation Engineers (L3) assists with the documentation of standard operating procedures relating to installations and fixes.
+      3. Act as a mentor
+The TS Implementation Engineer (L3) displays leadership and team management ability and delegates lower complexity tasks to engineers and technicians. They assume responsibility for the co-ordination of the activities of the engineers, in line with performance targets.
+They lead by example and monitor the quality of engineer's and technician's work when required. Mentorship of engineers and technicians is expected on this role.
+      4. Execute installations
+TS Implementation Engineers (L3) have good project skills which are demonstrated in the execution of installations and other assignments. Project certification and the understanding and adoption of Dimension Data's Primer methodology, is encouraged.
+      5. Provide telephonic, remote and on-site support to clients
+The individual demonstrates good administration ability in the form of proposal and report writing, and general project documentation development. The individual may be required to serve periodically on the customer service desk, providing third line telephonic, remote and on-site support and problem management.
+      6. Act on specialist knowledge
+The TS Implementation Engineer (L3) is expected to take ownership of relevant technologies according to domain or specialization.</t>
+  </si>
+  <si>
+    <t>【Nội dung công việc của bạn】
+- Phát triển ứng dụng trên Website và Smartphone.
+- Code HTML/ CSS/ Jquery theo yêu cầu từ file PSD, AI,...
+- Chỉnh sửa hình ảnh bằng photoshop. (vì các file hình bên khách cung cấp thường là dữ liệu thô, cần phải biết về photoshop để chỉnh sửa, thiết kế lại để đưa lên web).
+- Nghiên cứu ứng dụng các công nghệ mới. (Gần đây, chúng tôi cũng đang tập trung phát triển các ứng dụng tiên tiến như Magic Leap -Tai nghe thực tế tăng cường (AR) và 「HTC VIVE」- một loại kính thực tế ảo)</t>
+  </si>
+  <si>
+    <t>Study, analyze, design, execute IT solutions in automation industry at factory.
+Handle IT solutions on automation production industry at factory.
+Coordinate with other departments to study customer’s demand and suggest proper solutions.</t>
+  </si>
+  <si>
+    <t>1. Chịu trách nhiệm quản lý hệ thống Database được phân công.
+2. Xây dựng và thực hiện các kịch bản backup, restore, recover database cho các hệ thống.
+3. Xây dựng qui trình, qui định về vận hành giám sát, khắc phục sự cố hệ thống Database.
+4. Tiếp nhận, xem xét và kiểm soát các nhu cầu thay đổi sản phẩm, dịch vụ từ các đơn vị trong Ngân hàng đảm bảo tuân thủ theo quy trình quản lý thay đổi được áp dụng tại Khối Công nghệ.
+5. Đề xuất cho Lãnh đạo các công nghệ mới liên quan đến lĩnh vực của mình.
+6. Thực hiện các công việc khác do cán bộ quản lý giao.
+7. Làm việc theo sự phân công và giao nhiệm vụ của Lãnh đạo Khối và lãnh đạo Ngân hàng</t>
+  </si>
+  <si>
+    <t>Qualified Database developer to design stable and reliable databases,according to our company’s needs. You will be responsible for developing, testing, improvingand maintaining new and existing databases to help users retrieve data effectively.
+As part of our IT team, you will work closely with developers to ensure system consistency. You will also collaborate with administrators and developer to provide technical support and identify new requirements. Communication and organization skills are keys for this position, along with a problem-solution attitude.
+Ultimately, you should be able to ensure our database systems run effectively and securely on a daily basis.
+• Design stable, reliable and effective databases
+• Optimize and maintain legacy systems
+• Modify databases according to requests and perform tests
+• Solve database usage issues and malfunctions
+• Liaise with developers to improve applications and establish best practices
+• Gather user requirements and identify new features
+• Develop technical and training manuals
+• Provide data management support to users
+• Ensure all database programs meet company and performance requirements
+• Research and suggest third-party tool to monitor databases, services and protocols</t>
+  </si>
+  <si>
+    <t>Tham gia vận hành tất cả Cơ sở dữ liệu Oracle Corebanking, Ebanking và CSDL các Hệ thống khác của Ngân hàng.</t>
+  </si>
+  <si>
+    <t>This position is to oversee the systems that provide the payment service for Lazada and Daraz in 11 countries. We will build up the mechanism to monitor the system closely and also properly handle the production transaction issues when detected; Meanwhile, we would establish and enhance the partnership with the payment institutions in the region to seek for more robust payment operation system to support the payment transactions.
+The job assignments are included but not limited as:
+Monitor the payment systems and make a quick response to online incidents, and coordinate and drive teams to resolve incidents in a timely manner.
+Quickly and accurately assess the impact of an outrage of a major system or application, and then drive to resolve and conclude the issues.
+Build up and optimize the tools/functions to improve monitoring effectiveness and efficiency.
+Implement data analytics to conduct deep investigation and analysis of issues, and propose solutions according to the analysis findings.
+Provide insights from Operation and Support perspective when integrating new channels to ECPay system.
+Answer escalated inquiries of specific transactions.
+Review and prepare documentation for team training or learning.
+Ad-hoc works assigned by the Team Leader</t>
+  </si>
+  <si>
+    <t>YOU WILL:
+Take a part in full-specter Oracle database administration of internal company development/QA client-side environments
+Assist in company product data model maintenance (database schema object maintenance)
+Oracle Database installation, upgrades and patching
+Investigate and solve database incidents
+Strictly conform the company polices and standards to deliver a high level of service
+Work with flexible work time</t>
+  </si>
+  <si>
+    <t>As a Functional SCM (Supply Chain Management) consultant, you will required to take end to end responsibility of SCM modules related configurations, Testing and Training for Oracle EBS SCM. You’ll require to resolve queries raised by users on SCM modules. You will contribute to prepare Test Script, Functional testing and capturing results in the given tool during various phases of Upgrade project. You will provide updates for Project trackers, issue resolutions and coordinate with team on SCM modules configurations / setups.</t>
+  </si>
+  <si>
+    <t>• Develop and maintain System web application with emphasis on SSO, Java Message Service and SOAP, REST webservices
+• Follow best development practices and secure development lifecycle
+• Work with Product manager, Tech Lead, BA... to review requirements and estimate development effort
+• Contribute to architecture and design decisions on a project level
+• Perform Code Reviews to ensure product quality, performance, risk and security
+• Able to work and interact with development teams in different time zones (US, India)
+• Able to collaborate to other developers in completing required tasks
+• Research, evaluate and learn new technology, components, development practices and patterns
+• Deliver on time reliably and with few defects</t>
   </si>
   <si>
     <t>We are looking for a highly motivated, self-organising and talented individual who can demonstrate both technical skills and creative thinking. You will work hands-on as part of the IT Operations Team to develop and maintain our database systems to support our innovative digital banking products. You will be a key member of a team that is obsessed with delivering a world class, dynamic technology platform across multiple data centers.
@@ -406,34 +1032,151 @@
 Take care of the code base, share knowledge, introduce new ideas: grow the dev culture!</t>
   </si>
   <si>
-    <t>3+ years of related experience in building data engineering pipeline.
-Knowledge in Spark, data streaming architectures, experience using and optimizing services such AWS Redshift, BigQuery, Dataflow, Dataproc, Airflow pipelines and framework.
-Expertise in SQL, Python or Java with experience in bash shell scripts, UNIX utilities.
-Experience in data engineering work supporting ML vision and NLP is a plus.
-Proven ability to leverage multiple tools and programming languages to analyze and manipulate large data sets from disparate data sources and build innovative solutions.
-A team player having superior ability to communicate technical ideas and results to non-technical partners in written and verbal form.
-Self-motivated, detail oriented and responsible.
-BSc, MSc degree in Computer Science related fields.</t>
-  </si>
-  <si>
-    <t>Solid understanding of statistical analysis, machine learning and data-modeling.
-Experience in predictive modeling and analysis.
-Practical experience with machine learning toolkits and frameworks
+    <t>• Developing cutting edge SQL reports while taking ownership of client relationships by working with customers to gather requirements, optimize solutions, and resolve problems
+• Analyzing, designing, and developing reports with report writing tools (SSIS, SSRS, and Crystal Reports etc.)
+• Utilizing ETL processes to extract, transform, and load data between various sources
+• Ability to work in a team environment with a strategic thinking mentality
+• Detail-oriented with strong organizational, analytical and communication skills that adhere to standards and best practices
+• Must be able to prioritize and complete assigned tasks within required deadlines.
+• Places emphasis on client satisfaction and customer experience
+• Enthusiastic about learning large and complex systems, and expanding knowledge to learn new tools
+• Excellent verbal, written communication and interpersonal skills
+• Creative, analytical multi-tasker and self-starter</t>
+  </si>
+  <si>
+    <t>Make test plan and test script, prepare test data
+Manage, analyze and monitor test results, report test results
+Log bugs founded and report
+Write the manual document
+Other tasks as assigned by the leader;</t>
+  </si>
+  <si>
+    <t>Job Purpose
+To support IT Application Supervisor in discharging his / her duties and responsibilities on the users’ requirement on software development / enhancement
+Create and modify computer programs by converting project requirements into computer language / codes
+Develop simple IT applications to tackle minor issues airing from the day to day Operations
+Job accountabilities
+Confirm program requirements by reviewing project objectives, input data and output requirements with IT supervisor and clients.
+Arranges project requirements in programming sequence by analyzing requirements; prepare a work flow chart and diagram using knowledge of computer capabilities, subject matter, programming language, and logic.
+Encode project requirements by converting workflow information into computer language.
+Program the computer by entering coded information.
+Confirm program operation by conducting tests; modify program sequence and/or codes.
+Prepare reference for users by writing operating instructions.
+Maintain documentation of all deployed software, configurations, licenses and contracts.
+Always keep up to date system information, changes and updates.</t>
+  </si>
+  <si>
+    <t>We are looking for someone who genuinely enjoys working with data and applies creativity in the process. The work largely consists of interactive use of SQL to perform ETL processes. We require someone with excellent attention to detail, who takes pride in ensuring that data is correct and consistent.
+Handles and leads the most complex or critical data/ database management initiatives that typically involve multiple disciplines and multiple business groups, including responsibility for database architecture, design, integration, and/or data modeling</t>
+  </si>
+  <si>
+    <t>Our code and our data live in the cloud. As a Backend Engineer you will build our application logic and connect it to databases, message queues and web clients.</t>
+  </si>
+  <si>
+    <t>Executes software test, performs bug verification, release testing, and beta support projects which may require research and analysis.
+SPECIFIC RESPONSIBILITIES:
+Execute software test.
+Perform bug verification, release testing, and beta support projects which may require research and analysis.
+Prepare technical documentation of product sub-systems.
+Conduct sub-systems and system level testing to ensure the product meets specified requirements.
+Research problems discovered during testing and develops solutions to the problems</t>
+  </si>
+  <si>
+    <t>- Tham gia Agile/SCRUM team phát triển sản phẩm web app SaaS phục vụ hàng triệu nhà bán hàng trong thị trường Đông Nam Á 
+- Tham gia vào quá trình phân tích, thiết kế và phát triển hệ thống sản phẩm công nghệ hàng đầu
+- Thiết kế chi tiết và viết các tài liệu kỹ thuật khi nhận yêu cầu mới
+- Code và thực hiện Unit test sản phẩm
+- Tham gia vào các hoạt động review tài liệu thiết kế cũng như mã nguồn</t>
+  </si>
+  <si>
+    <t>REQUIREMENT:
+Love of data. You run “SELECT COUNT(SHEEP) FROM BACKYARD” during your sleep!
+Strong programming skill.
+Problem solving skills
+Teamwork spirit
+(Bonus) Experience with cloud platforms such as Google Cloud Platform or Amazon Web Service</t>
+  </si>
+  <si>
+    <t>Bachelor/Msc degree in Statistic/Math/Information System/Computer Science/Applied Science.
+1-3 years industry experience with demonstrable record of utilising Data Science techniques to make solid business impact.
+Computer Science fundamentals and programming (data structures, algorithms, computability and complexity, computer architecture, etc.)
+Strong background in math: linear algebra, multivariate calculus, probability and statistic, optimization
+Excellent understanding of machine learning techniques and algorithms: (regression, decision tree, nearest neighbor, neural net, support vector machine, ensemble of multiple models, etc.)
+Experience with common data science programming language and toolkits: Python, pandas, numpy, sklearn, R, dplyr, ggplot, caret…
+Proficiency in using SQL and popular RDBMSs (MySQL, postgreSQL). Experience with NoSQL databases, such as MongoDB, Cassandra, Hbase is highly desirable
+Ability to work under pressure
+Business proficiency in English language skills is a must</t>
+  </si>
+  <si>
+    <t>Experience in building data platforms and pipelines for analytics
+Experience in developing, maintaining and delivering platform features as per the road-map with tight timelines
+Exposure to emerging open source technologies is preferred</t>
+  </si>
+  <si>
+    <t>Good knowledge of algorithms and data structures
+Experience with ad serving, ad tracking and optimization is a plus
+Strong in analytics and problem solving technique
 Willingness to learn and able to pick up new technology or new concepts fast;
 Able to work independently as well as in collaborative mode with minimum supervision;
 Work productively even under pressure;
 Possess good work ethic, attitude with good follow-through;
-Excellent communication in written and spoken English.</t>
-  </si>
-  <si>
-    <t>University degree in IT, Electronics and Telecommunications.
-1-2 years experience in using/developing/customizing structured data collection and processing or code/system deployment solutions, using scripting language (Python or Perl) is preferred.
-Understand data structures and data storage systems. Candidates with over 1 year of experience in analyzing/storing xml/json data in particular and structured data in general are preferred.
-Have basic knowledge in building REST APIs and connection to the Web Front-end
-Good knowledge about Unix/Linux environment and source code/version management tool (Git/SVN).
-Good English. Work independently. Ability to self-study, research language/library/API.
-Experience in deploying and customizing config management/deployment tools such as Puppet/Chef/Ansible/SaltStack is a plus.
-Have basic knowledge/experience of IP network and system integration. Particularly preference is given to candidates with interest in SDN.</t>
+Excellent communication in written and spoken English.
+Must be proficient in either Python, Scala, Spark or NodeJS
+Proficiency in multiple languages listed above is a plus</t>
+  </si>
+  <si>
+    <t>- Thành thạo một trong các ngôn ngữ sau: Golang, Java, Scala, Python
+- Có trên 1 năm kinh nghiệp lập trình 2 trong những công nghệ sau: 
+MapReduce (Hadoop, Spark, Flink), Queue processing (Kafka, Redis,ReditMQ, ...), Workflow (Oozie, ...), Concurrent programming (Akka, Go channel, ...)
+- Có trên 1 năm kinh nghiệm về xử lý dữ liệu văn bản, xử lý xâu, các thuật toán xử lý dữ liệu trích chọn đặc trưng trong NLP
+- Có trên 1 năm kinh nghiệm làm việc có sử dụng biểu thức chính quy
+- Có trên 1 năm kinh nghiệm làm việc với dữ liệu lớn: trên 60k event per seconds hoặc trên 10GB per day.
+- Nắm được quy trình phát triển phần mềm, có kỹ năng code tốt, nắm được coding convention, có khả năng viết Unit Test, (Behavior Test &amp; Integration test là một lợi thế)
+- Sử dụng thành thạo các cấu trúc dữ liệu: Array, Set, HashMap, Linked List,... ; Và giải thuật cơ bản: sắp xếp, tìm kiếm,
+- Làm việc thành thạo trên môi trường Linux
+- Sử dụng thành thạo git
+- Có kinh nghiệm làm việc với các dự án MicroServices, dự án sử dụng học máy là một lợi thế.</t>
+  </si>
+  <si>
+    <t>Encompass a high level of integrity.
+Exemplify a strong work ethic.
+Be fluent in English (writing, reading, speaking).
+2+ years of experience doing quantitative analysis.
+Experience with statistical software (e.g., R, Python, Julia, MATLAB) and database languages (e.g., SQL).
+Ability to communicate the results of analyses with the teams to influence the strategy of the product.
+Understanding of statistics (e.g., hypothesis testing, regressions).
+Experience manipulating data sets. Experience with building data sets would be a plus.
+Strong problem solving skills.
+A drive to learn and master new technologies and techniques.</t>
+  </si>
+  <si>
+    <t>Strong passion for big data and data science.
+Experience with one or more of the following programming languages: Java, Scala, Python, R
+Experience implementing machine learning &amp; analytics algorithms on Hadoop : classification, recommendation, NLP.
+Experience with petabyte scale data processing and analytics.
+Expereince with ETL &amp; data cleansing/preparation (in a Hadoop environent is a plus) such as Flume.
+Experience with various messaging systems, such as Kafka
+Elastic Search/LogStash/FluentD experience a plus.
+Hadoop setup &amp; administration experience a plus.</t>
+  </si>
+  <si>
+    <t>Fresher are welcome to apply.
+Experience in building data driven applications (or using existing cloud-based software).
+Experience with data mining and report building is a plus.
+Experience with Linux servers, Python programming and PostgreSQL is needed.
+If the above is not met, experience with any SQL databases and willingness to learn Python is required.
+Experience with either R, pandas, numpy, asynchronous programming or front end development is highly valued, though not required.
+Good English verbal and written communication skills
+Comfortable in a small, intense and high-growth startup environment</t>
+  </si>
+  <si>
+    <t>4+ years Java development
+Strong Java core
+Experience with Kafka
+Experience with Spark
+Extensive experience building scalable, high-performance distributed systems that deal with large data volumes
+Knowledge of Clojure, Scala, Go or any other functional language is a plus
+Good communications, spoken and written English</t>
   </si>
   <si>
     <t>Yêu cầu chung
@@ -452,19 +1195,6 @@
 – Có kinh nghiệm lập trình với Spark, Kafka là một lợi thế.</t>
   </si>
   <si>
-    <t>Proficiency with Hadoop v2, MapReduce, HDFS
-Experience with Spark and its latest features
-Experience with integration of data from multiple data sources
-Experience with NoSQL databases, such as HBase, Cassandra, MongoDB
-Knowledge of various ETL techniques and frameworks, such as Flume
-Experience with various messaging systems, such as Kafka or RabbitMQ
-Experience with Big Data ML tool kits, such as Mahout, SparkML, or H2O
-Good understanding of Lambda Architecture, along with its advantages and drawbacks
-Experience with Cloudera and Horton works
-BS or MS in CS
-At least 2 years of experience as software architect for large-scale enterprise software solutions</t>
-  </si>
-  <si>
     <t>Bachelor’s degree (or higher) in Computer Science or Engineering with 5+ years of related work experience.
 3+ years of industry experience building and deploying ML models in production. Any healthcare industry experience would be a huge plus.
 Demonstrated 2+ years industry experience working with one of the core cloud platforms and its associated products (AWS, GCP or Azure) as related to building data pipelines that support ML workloads. AWS experience is highly desired.
@@ -493,6 +1223,118 @@
 Experience working with global and remote teams will be an added bonus.
 Have strong point of view but you are low-ego.
 MS (or higher) in Computer Science, Mathematics, Statistics or Operations Research, or related field preferably with research in machine learning.</t>
+  </si>
+  <si>
+    <t>3+ years of related experience in building data engineering pipeline.
+Knowledge in Spark, data streaming architectures, experience using and optimizing services such AWS Redshift, BigQuery, Dataflow, Dataproc, Airflow pipelines and framework.
+Expertise in SQL, Python or Java with experience in bash shell scripts, UNIX utilities.
+Experience in data engineering work supporting ML vision and NLP is a plus.
+Proven ability to leverage multiple tools and programming languages to analyze and manipulate large data sets from disparate data sources and build innovative solutions.
+A team player having superior ability to communicate technical ideas and results to non-technical partners in written and verbal form.
+Self-motivated, detail oriented and responsible.
+BSc, MSc degree in Computer Science related fields.</t>
+  </si>
+  <si>
+    <t>University degree in IT, Electronics and Telecommunications.
+1-2 years experience in using/developing/customizing structured data collection and processing or code/system deployment solutions, using scripting language (Python or Perl) is preferred.
+Understand data structures and data storage systems. Candidates with over 1 year of experience in analyzing/storing xml/json data in particular and structured data in general are preferred.
+Have basic knowledge in building REST APIs and connection to the Web Front-end
+Good knowledge about Unix/Linux environment and source code/version management tool (Git/SVN).
+Good English. Work independently. Ability to self-study, research language/library/API.
+Experience in deploying and customizing config management/deployment tools such as Puppet/Chef/Ansible/SaltStack is a plus.
+Have basic knowledge/experience of IP network and system integration. Particularly preference is given to candidates with interest in SDN.</t>
+  </si>
+  <si>
+    <t>Proficiency with Hadoop v2, MapReduce, HDFS
+Experience with Spark and its latest features
+Experience with integration of data from multiple data sources
+Experience with NoSQL databases, such as HBase, Cassandra, MongoDB
+Knowledge of various ETL techniques and frameworks, such as Flume
+Experience with various messaging systems, such as Kafka or RabbitMQ
+Experience with Big Data ML tool kits, such as Mahout, SparkML, or H2O
+Good understanding of Lambda Architecture, along with its advantages and drawbacks
+Experience with Cloudera and Horton works
+BS or MS in CS
+At least 2 years of experience as software architect for large-scale enterprise software solutions</t>
+  </si>
+  <si>
+    <t>• Must have strong knowledge of data models, data mining and segmentation techniques; 
+• Must have strong knowledge and experience in working with databases (SSMS/SQL Developer/Oracle/etc.) and/or programming (Visual Basic/Excel VBA/etc.);
+• Strong knowledge of statistics and experience using statistical packages for analyzing datasets (Excel/SPSS/SAS/etc.) and/or database design development is preferred;
+• Detail-oriented, high accuracy attention;
+• Organizer &amp; optimizer, willing to learn and open-minded;
+• Bachelor of Mathematics/Economics/Computer Science/Information Management or Statistics;
+• Good communication in English is preferred, be able to study new knowledge/documents in English.</t>
+  </si>
+  <si>
+    <t>Solid understanding of statistical analysis, machine learning and data-modeling.
+Experience in predictive modeling and analysis.
+Practical experience with machine learning toolkits and frameworks
+Willingness to learn and able to pick up new technology or new concepts fast;
+Able to work independently as well as in collaborative mode with minimum supervision;
+Work productively even under pressure;
+Possess good work ethic, attitude with good follow-through;
+Excellent communication in written and spoken English.</t>
+  </si>
+  <si>
+    <t>Required degree/experience
+Degree of university in Software Engineer, Information System, Computer Science.
+At least 2~3 years of experience.
+Experience building data models, ETL pipeline, data warehouse
+Required qualities/abilities
+Strong knowledge and passion in processing, cleansing and harmonizing data.
+Good understand a programming language (Python is plus)
+Experience processing data in DBMS (Mongo, SQL Server, Big Query, etc.)
+Experience in ETL (Nifi, Kafka, etc.)
+Experience in Data Warehouse or BI Tools.
+Ability to learn technologies in short time and work in high pressure is mandatory.
+Positive thinking, enthusiasm, and responsibility are mandatory
+Other conditions
+Candidate with experiences in e-commerce is prioritized.</t>
+  </si>
+  <si>
+    <t>Yêu cầu chuyên môn:
+- Thành thạo ít nhất 1 trong các ngôn ngữ lập trình như Java, Python, ...
+- Có kinh nghiệm làm việc trên các framework: Tensorflow, Keras, Theano, Pytorch
+- Ưu tiên kinh nghiệm trong các chuyên môn:
++ Ai/ Machine Learning, xử lý hình ảnh (Computer vision/Image processing)
++ Xử lý ngôn ngữ (NLP/Natural language processing)
++ Hệ thống gợi ý (Recsys/Recommendation system)
+- Ưu tiên kinh nghiệm với những dự án lớn về data/AI
+Yêu cầu tố chất:
+-Tư duy toán học và logic tốt, yêu thích làm việc với thuật toán và data để giải quyết các bài toán thực tế
+- Ưu tiên các ứng viên học các ngành Khoa học máy tính, Toán tin, Toán ứng dụng, Thống kê, Công nghệ thông tin hoặc các ngành có liên quan
+- Biết lập trình căn bản
+- Ưu tiên các ứng viên đạt giải quốc tế, quốc gia Toán, Tin học hoặc có bài báo quốc tế về các chủ đề liên quan.
+- Ưu tiên ứng viên đã kinh nghiệm làm việc trong lĩnh vực Big data, AI, ML,... tại các công ty, phòng lab, trung tâm nghiên cứu AI, ML
+- Có khả năng tự tìm kiếm, nghiên cứu tài liệu bằng tiếng Anh tốt
+- Khả năng tự nghiên cứu tốt
+- Ưu tiên kỹ năng quản lý, từng lead team trên 3 người</t>
+  </si>
+  <si>
+    <t>BS or MS in Computer Science, Statistics, Mathematics or equivalent.
+Minimum of 5 years of full lifecycle software development experience in data engineering, including coding, testing, troubleshooting, and deployment.
+Strong hands-on expertise with building resilient and reliable ETL pipelines.
+Programming proficiency in Go, and at least one of Scala or Python.
+Strong SQL knowledge (MySQL or Postgres), familiarity with techniques to identify slow queries and debugging
+Experience working in the AWS data ecosystem (S3, RDS, EMR, Lambda, Redshift, MQs, Kinesis).
+Understanding of containerized workloads (Docker, Kubernetes, ECS)
+Strong desire to contribute to a rapidly growing startup and being comfortable with learning new tools and technologies.
+Bonus points for knowledge of:
+Real estate markets, MLS assessor/tax and parcel data
+RETS/RESO APIs for extracting real estate data
+GIS datasets (shapefiles, GeoJSON, etc)
+Open source mapping data (OpenStreetMap (OSM), OpenAddresses)
+Apache Spark
+ElasticSearch</t>
+  </si>
+  <si>
+    <t>- Đại học trở lên chuyên ngành Toán phân tích, Khoa học dữ liệu, Xác suất thống kê, Big data,...;
+- Am hiểu về xác suất, phân tích thống kê, phân tích dữ liệu, big data; có khả năng phán đoán, dự báo các nhân tố ảnh hưởng đến chất lượng, sản lượng;
+- Có hiểu biết sâu và khả năng sử dụng các tool trong Machine learning, Deep learning;
+- Có khả năng đối phó với sự cố, tình huống bất thường;
+- Có tinh thần trách nhiệm cao, chịu được áp lực công việc;
+- Thành thạo tiếng Anh (Ưu tiên ứng viên biết tiếng Hàn)</t>
   </si>
   <si>
     <t>Trình độ:
@@ -517,74 +1359,6 @@
 Ứng viên có kiến thức về Computer Vision, Image Processing, NLP, Voice Recognition, Speech Processing</t>
   </si>
   <si>
-    <t>• Must have strong knowledge of data models, data mining and segmentation techniques; 
-• Must have strong knowledge and experience in working with databases (SSMS/SQL Developer/Oracle/etc.) and/or programming (Visual Basic/Excel VBA/etc.);
-• Strong knowledge of statistics and experience using statistical packages for analyzing datasets (Excel/SPSS/SAS/etc.) and/or database design development is preferred;
-• Detail-oriented, high accuracy attention;
-• Organizer &amp; optimizer, willing to learn and open-minded;
-• Bachelor of Mathematics/Economics/Computer Science/Information Management or Statistics;
-• Good communication in English is preferred, be able to study new knowledge/documents in English.</t>
-  </si>
-  <si>
-    <t>13th month salary yearly
-Extra bonus based on performance and company profit yearly
-Extra Insurance – FPT Care
-Has chance to become the shareholder of the company
-Company Trip annually
-Team building trip annually
-Gift on special days like birthday, Tet and Holidays
-Opportunities to work in Agile Environment
-Office is located in District 7
-Team building activities such as Fruit Days
-Sport activities like Football club
-Training to develop our employees
-Performance Review every year to adjust Salary and title/position</t>
-  </si>
-  <si>
-    <t>Yêu cầu chuyên môn:
-- Thành thạo ít nhất 1 trong các ngôn ngữ lập trình như Java, Python, ...
-- Có kinh nghiệm làm việc trên các framework: Tensorflow, Keras, Theano, Pytorch
-- Ưu tiên kinh nghiệm trong các chuyên môn:
-+ Ai/ Machine Learning, xử lý hình ảnh (Computer vision/Image processing)
-+ Xử lý ngôn ngữ (NLP/Natural language processing)
-+ Hệ thống gợi ý (Recsys/Recommendation system)
-- Ưu tiên kinh nghiệm với những dự án lớn về data/AI
-Yêu cầu tố chất:
--Tư duy toán học và logic tốt, yêu thích làm việc với thuật toán và data để giải quyết các bài toán thực tế
-- Ưu tiên các ứng viên học các ngành Khoa học máy tính, Toán tin, Toán ứng dụng, Thống kê, Công nghệ thông tin hoặc các ngành có liên quan
-- Biết lập trình căn bản
-- Ưu tiên các ứng viên đạt giải quốc tế, quốc gia Toán, Tin học hoặc có bài báo quốc tế về các chủ đề liên quan.
-- Ưu tiên ứng viên đã kinh nghiệm làm việc trong lĩnh vực Big data, AI, ML,... tại các công ty, phòng lab, trung tâm nghiên cứu AI, ML
-- Có khả năng tự tìm kiếm, nghiên cứu tài liệu bằng tiếng Anh tốt
-- Khả năng tự nghiên cứu tốt
-- Ưu tiên kỹ năng quản lý, từng lead team trên 3 người</t>
-  </si>
-  <si>
-    <t>BS or MS in Computer Science, Statistics, Mathematics or equivalent.
-Minimum of 5 years of full lifecycle software development experience in data engineering, including coding, testing, troubleshooting, and deployment.
-Strong hands-on expertise with building resilient and reliable ETL pipelines.
-Programming proficiency in Go, and at least one of Scala or Python.
-Strong SQL knowledge (MySQL or Postgres), familiarity with techniques to identify slow queries and debugging
-Experience working in the AWS data ecosystem (S3, RDS, EMR, Lambda, Redshift, MQs, Kinesis).
-Understanding of containerized workloads (Docker, Kubernetes, ECS)
-Strong desire to contribute to a rapidly growing startup and being comfortable with learning new tools and technologies.
-Bonus points for knowledge of:
-Real estate markets, MLS assessor/tax and parcel data
-RETS/RESO APIs for extracting real estate data
-GIS datasets (shapefiles, GeoJSON, etc)
-Open source mapping data (OpenStreetMap (OSM), OpenAddresses)
-Apache Spark
-ElasticSearch</t>
-  </si>
-  <si>
-    <t>- Đại học trở lên chuyên ngành Toán phân tích, Khoa học dữ liệu, Xác suất thống kê, Big data,...;
-- Am hiểu về xác suất, phân tích thống kê, phân tích dữ liệu, big data; có khả năng phán đoán, dự báo các nhân tố ảnh hưởng đến chất lượng, sản lượng;
-- Có hiểu biết sâu và khả năng sử dụng các tool trong Machine learning, Deep learning;
-- Có khả năng đối phó với sự cố, tình huống bất thường;
-- Có tinh thần trách nhiệm cao, chịu được áp lực công việc;
-- Thành thạo tiếng Anh (Ưu tiên ứng viên biết tiếng Hàn)</t>
-  </si>
-  <si>
     <t>Tốt nghiệp Đại học trở lên, chuyên ngành CNTT, tài chính ngân hàng, hoặc kết hợp chuyên ngành học với kinh nghiệm làm việc có liên quan đến quản trị dữ liệu
 Cấp Nhân viên: ưu tiên các bạn sinh viên vừa tốt nghiệp có GPA &gt; 7.0, TOEIC &gt; 600, yêu thích về mảng dữ liệu.
 Cấp Chuyên viên: có ít nhất 3 năm kinh nghiệm phân tích dữ liệu, 1 năm kinh nghiệm về SQL, 1 năm kinh nghiệm trong lĩnh vực tài chính.</t>
@@ -632,13 +1406,323 @@
 • Customer Service, administration, sales, data entry: 1-2 year</t>
   </si>
   <si>
-    <t>4+ years Java development
-Strong Java core
-Experience with Kafka
-Experience with Spark
-Extensive experience building scalable, high-performance distributed systems that deal with large data volumes
-Knowledge of Clojure, Scala, Go or any other functional language is a plus
-Good communications, spoken and written English</t>
+    <t>Có từ 1 năm kinh nghiệm trở lên lập trình Java Core hoặc Java Web trong các dự án thực tế.
+Có kinh nghiệm làm việc với các công cụ : Jira, Gitlab/GitFlow, Esclipse,Visual Studio Code
+Có kinh nghiệm làm việc Spring MVC/ Spring boot (rest API, Data Persistance, Swagger, Cucumber, Mokito)
+Làm việc tốt với các framework Front-end ( Angular/HTML/CSS/JS)
+Có khả năng giao tiếp bằng tiếng Anh hoặc tiếng Nhật
+Ưu tiên ứng viên đã có kinh nghiêm làm việc trong các dự án theo mô hình Agile Scrum.
+Có chứng chỉ tiếng Anh hoặc chứng chỉ chuyên môn là một lợi thế.</t>
+  </si>
+  <si>
+    <t>Có từ 1 năm kinh nghiệm trở lên làm việc trong các dự án thực tế với các công nghệ sau :
+Java script, JSON
+HTLM, CSS, Bootstrap, AJAX
+Agular JS, jQuery
+SQL
+Tiếng anh đọc hiểu tài liệu và viết tốt ( ưu tiên ứng viên có khả năng giao tiếp bằng tiếng Anh).
+Ưu tiên ứng viên đã có kinh nghiệm làm việc với hệ thống Service Now hoặc có chứng chỉ Service Now.
+Ưu tiên ứng viên có kiến thức về ITIL V3, ITSM, Cloud, Customer Service Management.
+Ưu tiên ứng viên có kinh nghiệm làm việc trong các dự án theo mô hình Agile Scrum.</t>
+  </si>
+  <si>
+    <t>Có từ 1 năm kinh nghiệm trở lên làm việc trong các dự án phần mềm thực tế.
+Làm việc tốt với các công cụ : JIRA, Git/CVS, GitLab, Esclipse, Visual Studio Code.
+Có kiến thức tốt về Angular 5, Typescript, HTML 5, CSS3, RxJS.
+Ưu tiên ứng viên có ít nhất 1 năm kinh nghiệm làm việc trong cách dư án Backend Java Core.
+Ưu tiên ứng viên có hiểu biết về UML, Spring MVC, REST API, ..
+Ưu tiên ứng viên có kinh nghiệm làm việc trong các dự án theo mô hình Agile Scrum.
+Tiếng Anh đọc hiểu tài liệu và viết tốt ( ưu tiên ứng viên có khả năng giao tiếp bằng tiếng Anh).</t>
+  </si>
+  <si>
+    <t> Graduated college or university with major Information Technology, Computer Science, Software Engineering or related fields. 
+ At least 2 years’ experience as Programmer / Developer for Java Web-based Software Solutions
+ Java Core is mandatory.
+ Have knowledge in Java frameworks (Spring, Struts, etc.).
+ Knowledge on database management at least one of DBMS (ex: MS SQL Server, Oracle, MySQL, or others.
+ Basic in English.
+ Good working attitude,Good communication skill</t>
+  </si>
+  <si>
+    <t>• Fresher or experienced candidates.
+• Graduated university with major IT
+• Programming language: 
+o Back-end (Java): JEE, HTML, CSS, JavaScript.
+o Front-end: HTML5, CSS3, JavaScript, JQuery, JSON, Bootstrap 4, Angular NodeJS, ExpressJS, and MongoDB.
+o Mobile: iOS, Android.
+• Good knowledge of OOP/ OOAD/ AOP/ MVC/ SOAP/ RESTful.
+• Plus experienced in .NET or Mobile development is preferred.
+• Able to communicate in English or Japanese language.</t>
+  </si>
+  <si>
+    <t>Có từ 1 năm kinh nghiệm làm kiểm thử phần mềm.
+Có kinh nghiệm làm việc với các công cụ : Confluence/Jira, GitLab/ Gitflow.
+Có kinh nghiệm làm việc với các frameworks:
+Genkin
+Selenium
+Cucumber
+Ascidoc
+Mockito
+Có khả năng giao tiếp bằng tiếng Anh hoặc tiếng Nhật.
+Ưu tiên ứng viên đã có kinh nghiêm làm việc trong các dự án theo mô hình Agile Scrum.
+Có chứng chỉ tiếng Anh, tiếng Nhật hoặc chứng chỉ chuyên môn là một lợi thế.</t>
+  </si>
+  <si>
+    <t>Tốt nghiệp đại học trở lên các chuyên ngành CNTT hoặc tương đương
+Tối thiểu 3 năm kinh nghiệm tại vị trí DBA.
+Kiến thức chuyên sâu về các DB engines: Oracle, MS SQL server.
+Có chứng chỉ quốc tế OCP - Oracle Database Certified Professional
+Có kiến thức và kinh nghiệm làm việc tốt với các hệ điều hành Linux / Unix
+Có kỹ năng giao tiếp tốt, làm việc nhóm tốt
+Có khả năng đọc hiểu tiếng Anh chuyên ngành tốt
+Có tư duy logic tốt và có khả năng phân tích xử lý các vấn đề của hệ thống.
+Có khả năng chịu được áp lực công việc</t>
+  </si>
+  <si>
+    <t>Requires:
+.NET, .NET Core, RequireJS, REST API, WebServices.
+Process designer: BPMN
+Knowledge on IIS and related infrastructure area to support deployment.
+Eager to learn on new technology.
+Knowledge on Agile software development methodologies.
+Flexibility and agility in work
+Good English skills
+Other requirements:
+Graduated in Computer Science or a related discipline;
+Good listener and willing to learn;
+Positive thinking;
+Flexible and creative approaches.
+Responsible and highly committed;
+Ability to work independently, self-motivated;
+Effective verbal and written communication skills;
+Integrity and a good team player;</t>
+  </si>
+  <si>
+    <t>MUST HAVE
+Tối nghiệp đại học chuyên ngành về CNTT, Toán Tin;
+Có Ít nhất 3 năm kinh nghiệm quản trị hệ thống;
+Có kiến thức tốt về Microsoft Windows Server 2008, 2008R2, 2012, Active Directory và chính sách nhóm;
+Kiến thức tốt về VMware, HyperV và các công nghệ ảo hóa khác;
+Có kinh nghiệm điều chỉnh hiệu năng và phân tích số liệu máy chủ trong vận hành, quản trị;
+Có kinh nghiệm làm việc với các phiên bản backup, sao lưu và phục hồi;
+Có kiến thức chuyên môn về các mô hình an ninh quản lý rủi ro;
+Có kinh nghiệm về DHCP, DNS, RDS;
+NICE TO HAVE
+Có chứng chỉ về quản trị máy chủ là một lợi thế;
+Nhiều kinh nghiệm hỗ trợ môi trường windows với hiểu biết chuyên môn về nhiều hệ thống vận hành nội bộ, clustering, HA, gỡ lỗi sự kiện và giải quyết vấn đề là một lợi thế;
+Có kinh nghiệm với hệ thống tài chính và giao dịch chứng khoán là 1 lợi thế;
+Có kinh nghiệm trong việc phát hiện, phân tích và quản lý rủi ro trên mạng dữ liệu lớn là một lợi thế;
+Có khả năng thuyết trình, giao tiếp bằng văn bản và lời nói;
+Kỹ năng giao tiếp, tự tin, làm việc nhóm, quan hệ khách hàng tốt;
+Có khả năng làm việc độc lập, dưới áp lực lớn.</t>
+  </si>
+  <si>
+    <t>SKILLS
+Must have 4yrs+ hands on Oracle DBA experience in a similarly challenging position.
+Oracle Database Server, PL/SQL, tuning, ETL, Data Warehousing
+WE EXPECT FROM YOU:
+Bachelor’s Degree in Computer Science, Telecommunication or related field.
+Strong DBA experience in Oracle Production environments, including development team support.
+Fluent English for day to day communications with European colleagues.
+Excellent communication skills and flexibility.
+Detail oriented, Proactive, Caring, Organized, Social, Curious, Accurate.
+STRONG PLUSES:
+DB experience on large scale and high performance/scale oracle Database
+AWS Experience, Postgres experience
+Fluent French or German is a nice to have</t>
+  </si>
+  <si>
+    <t>- Có kinh nghiệm chuyên sâu về DB2/Oracle .
+- Có kinh nghiệm quản trị dữ liệu trên Microsoft SQL Server.
+- Kinh nghiệm sâu về các cơ sở dữ liệu chạy trên máy chủ Unix, và điều chỉnh tham số và cấu hình hệ thống của máy chủ Unix cho DB2/Oracle Database.
+- Có thể sử dụng MS Project và MS Project.
+- Tối thiểu 2 năm kinh nghiệm ở vị tri tương đương.
+- Có thể đọc hiểu các tài liệu kĩ thuật bằng tiếng Anh.</t>
+  </si>
+  <si>
+    <t>Minimum requirements:
+At least 3 years experience of Python / Nodejs language
+Experience with web services and API integration.
+Strong experience in relational database design.
+Experience in cloud-based deployment (GCE, AWS).
+Preffered experience:
+Experience as a server administrator.
+Experience with non-relational database design.
+Real world experience in taking a commercial system from conception to launch.
+Automated back end testing (of database, API, server).
+Strong understanding of core front-end techs such as HTML, CSS, Bootstrap.</t>
+  </si>
+  <si>
+    <t>Our requirements are very simple:
+► Basic English communication skills
+► A minimum of 2 years’ experience in DBA role</t>
+  </si>
+  <si>
+    <t>[ MUST HAVE ]
+Bachelor degree
+One or more certification of Cisco, Microsoft, Security
+5 -10 years working experience
+Possessed the skills of Cisco Routing, IPT, Security, CCIE, CCNP
+Participated in a leadership capacity within the technical scope in previous successful IT project, POC and demonstration sales pursuits
+Demonstrated capacity for generating lateral thinking and transforming this into winning outcomes
+Previously lead teams in development of technical solution proposals
+Direct or indirect involvement in project management or large or complex projects
+Ability to overcome organizational and procedural constraints to achieve optimum outcomes 
+[ PLUS ]
+Certifications such as CCIE-Security is a plus
+Working knowledge of Dimension Data Service Offerings or service offering frameworks
+Dealings at multiple management levels within own and client organizations 
+Exposure to management accounting and financials (eg P&amp;L, costs, margins and price) 
+Understanding of outsourcing delivery capabilities and models
+Understanding of Dimension Data internal sales and delivery processes and tools 
+Previous career achievement in an IT engineering or analyst role 
+[ SOFT SKILLS ]
+Superior interpersonal and communications skills
+Self motivated and directed
+Ability to thrive in an ambiguous environment
+Service provider architecture and design
+[ BUSINESS SKILLS ]
+Broad knowledge of Strategic Value Selling or similar sales methodologies
+Superior analytical skills 
+Project management / planning / scheduling skills
+Decisive decision making and problem solving skills
+Strong presentation and negotiation skills</t>
+  </si>
+  <si>
+    <t>- Graduate University/College major IT.
+- At least 1 years’ experience as Programmer / Developer for Java Web-based Software Solutions
+- Java Core is mandatory.
+- Knowledge of J2EE platform/ JavaScript/HTML/CSS is mandatory.
+- Have knowledge in Java frameworks (Spring, Struts, etc.).
+- Knowledge on database management at least one of DBMS (ex: MS SQL Server, Oracle, MySQL, or others).
+- Basic in English.
+*** Benefits for successful candidates:
+1. Salary: Competitive
+2. Beside NET salary, employee will get the bonus 2 times per year according to working performance periodically and company profit.
+3. Salary increment: 1 time per year.
+4. Professional working conditions.
+5. Support IT and Business Manner courses.
+6. Work off on Saturday and Sunday by weekly, public holidays according to Vietnam labor Law
+7. Company retreat: 1 time per year
+8. Take annual leave 16 days per year.
+9. Have a chance to work and study in Indian, Japan, APAC etc</t>
+  </si>
+  <si>
+    <t>Degree holder in Engineering, Computer Science/Information Technology or equivalent
+Having certificates (CISCO) is a plus
+Minimum 4 years of experience in the System Integrator Company (a plus) and majority project related involved in redesign network, routing switching, internet gateway, core switch, nexus, cisco ACI and F5 LTM and GTM.
+DNS, DHCP, SMTP, Single Sign-On, LDAP/LDAPS, Certificate Services, Clientless VPN and IP Sec VPN, 2 Factor Authentication, Anti-malware and Anti-spam, Encryption and RMS, Distributed File Systems, Enterprise backup, Office 365, SharePoint Online including workflows, Enterprise Mobility Management (EMM), Windows Server and IIS, PowerShell, Citrix and VMware
+Proficient in Spoken and Written English
+Ability to handle stressful situations and resolve issues quickly and completely
+Good communicator, getting the best out of your teammates and exercising good listening to ensure understanding of the client’s business to ensure their satisfaction and loyalty
+Strong sense of customer centricity, comfortable communicating at technical level
+Analytical skills and proven ability to work with a client to understand requirements and define appropriate actions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Kỹ năng bắt buộc】
+- Có 2 năm kinh nghiệm trở lên về Front-end.
+- Có khả năng sử dụng Photoshop hoặc AI xử lý hình ảnh cho web và cắt HTML, CSS.
+- Kinh nghiệm quản lý Git.
+【Kỹ năng mong muốn】
+- Có kiến thức một trong các ngôn ngữ như Ｃ, VB...
+- Từng có kinh nghiệm phát triển về LAMP (Linux、Apache、MySQL、PHP), có kiến thức về framework.
+- Ham học hỏi, hứng thú và muốn tìm hiểu các kỹ thuật mới
+- Yêu thích công việc Front-end.
+- Chăm chỉ, chịu khó và tỉ mẩn
+- Giao tiếp cởi mở, sang tạo trong công việc để hoàn thành dự án đạt mục tiêu yêu cầu đề ra.
+- Có suy nghĩ tích cực, biết đóng góp ý kiến và có hướng xử lý tốt trong mọi tình huống
+*** CV trình bày bằng Tiếng Anh </t>
+  </si>
+  <si>
+    <t>Bachelor or Associate Degree, major in Information Technology
+Making plan skill, personally or team work, dynamic, knowledge about IT (C/ C++/ network system / server /Application/ Data base…).
+Analytics and database design skills for SQL Server, Access, Oracle…
+Good English (reading)
+Advancement Expectation, High Responsibility, Hard Working</t>
+  </si>
+  <si>
+    <t>-         Tốt nghiệp ĐH chuyên ngành điện tử viễn thông, Công Nghệ Thông Tin và các ngành liên quan.
+-          Có Các bằng cấp/ chứng chỉ như: OCA và OCP 
+-          Kinh nghiệm làm việc: tối thiểu làm 02 năm về database oracle.</t>
+  </si>
+  <si>
+    <t>• 2+ year experience SQL Server/MySQL - Creating SQL, Table Design, Importing Data, Stored Procedures, Mapping, Triggers, etc.
+• 2+ year experience with REST, SOAP, and related WebServices oriented architectures
+• Good understanding of data and schema standards and concepts
+• Good understand database design, implementation, troubeshooting and maintenance• Expertise in SQL
+• Critical thinker and problem-solving skills
+• Team player
+• Good time-management skills
+• Great interpersonal and communication skills</t>
+  </si>
+  <si>
+    <t>Tốt nghiệp đại học, cao đẳng chính quy chuyên ngành CNTT
+Có kiến thức tốt về một trong các hệ điều hành: Windows, Linux, Unix
+Có khả năng viết script nhằm tự dộng hóa việc quản trị.
+Có kiến thức tốt về một trong các CSDL: Oracle, MS SQL Server..
+Có các chứng chỉ OCA, OCP là một lợi thế
+Có kinh nghiệm làm việc Ngân hàng là một lợi thế.</t>
+  </si>
+  <si>
+    <t>3+ years experience in Software Development or debugging/troubleshooting or System Administration.
+Strong knowledge and skills in SQL, Computer Networking, Database, as well as Programming.
+Familiar with frequently used Linux/Unix commands.
+Exceptional communication skills in English and the ability to communicate effectively with business and technical teams.
+Able to work under pressure and take the 24*7 emergency on-call.
+Accept the international business travel requirements;
+Operation experience in sectors of banking or payment institutions is a plus.
+Knowledge and experience in data analytics and visualization is a plus.
+Experience in JavaScript is a plus.</t>
+  </si>
+  <si>
+    <t>YOU HAVE:
+Knowledge of Relational Databases / Oracle RDBMS (11g/12c), practical experience with Oracle RDBMS is a plus
+Ability to work in Unix shell
+English fluency
+Strong interest and willing to learn and develop in the area of Oracle Database administration
+Good problem resolution and analytical skills
+Ability to work under pressure
+YOU NEED : 
+If you are invited for an interview, you will be submitted to:
+-  A technical test.
+-  English interview.
+The interested candidates should submit full applications &amp; curriculum vitae in WORD or PDF file and in English with full details of qualifications, experiences, current and expected salary, copies of certificates, one recent photo &amp; contact phone number.
+Only applications and CV in English will be considered.</t>
+  </si>
+  <si>
+    <t>Basic:
+● Knowledge of following Supply Chain modules
+○ At least 1+ years of experience in Oracle EBS SCM modules
+Preferred:
+● Minimum of at least 1 years of experience Oracle EBS SCM modules and should have worked on Oracle EBS R12
+● Must have knowledge of SCM modules
+● Must have broad EBS knowledge and some knowledge of Finance modules
+● Must have good communication skill to interact with customer and team
+● Must know English and Vietnamese languages 
+Nice to have:
+● Knowledge of PL/SQL
+● Troubleshooting on issues
+● Knowledge of HP ALM for Test Cases and Defect tracking</t>
+  </si>
+  <si>
+    <t>• At least 3 years hands-on experience in Java Development and delivering software products
+• SaaS concepts, SOAP, REST web services.
+• Java (Core, Web Components - JSP, Enterprise), J2EE frameworks.
+• DB2 Database
+• Expertise with web services, including SOAP, REST, WSDL, Eclipse, Ant etc.
+• Best practices for both server-side and client-side construction and integration
+o Java 6-7, J2EE and frameworks like Struts 1&amp;2, EJB, MDB, JMS, Junit.
+o Good knowledge of Java design Pattern 
+o Single Sign On like SAML
+o UI framework like JQuery, Bootstrap
+• Able to setting up local application servers and integrating with remote servers such as WS Application Server 8,9.
+• Working Knowledge on Unix system with command line and shell scripts.
+• Knowledge in software life cycle from definition, requirements analysis and design to implementation and testing/verification
+• Agile/Scrum methodologies and practices
+• English communication
+Qualifications
+• BS in Computer Science or related field.
+• English level: Intermediate or above (ex: TOEIC 550 up)</t>
   </si>
   <si>
     <t>You should be able to demonstrate capability or experience in the following in Live Production environments:
@@ -656,6 +1740,7 @@
   </si>
   <si>
     <t>Skills and Knowledge Requirements
+Proficient in English as you're going to work closely with your colleagues in Singapore.
 As a (Python) Backend Engineer, you should possess the following competencies:
 2+ year of Python
 2+ years of RDBMS (MySql or Postgres) development experience
@@ -676,12 +1761,265 @@
 We are looking for team-players who are creative in their approach to problem solving. They take the initiative to explore different ways to resolve an issue, and systematically find the most efficient and effective way to do it.</t>
   </si>
   <si>
+    <t>• College / University in IT, Computer Science
+• 2+ year experience MS SQL Server 2000-2014 - Creating SQL, Table Design, Importing Data, Stored Procedures, Mapping, Triggers, etc.
+• 2+ year experience with REST, SOAP, and related WebServices oriented architectures
+• Experience in Microsoft SQL Server database, MySQL
+• Experience using Microsoft tools – Outlook, Visual Studio
+• Experience with SQL Server Management Studio, Power BI, Microsoft SQL Server Integration Services (SSIS), Microsoft SQL Server Reporting Services (SSRS), Microsoft SQL Server Analysis Services (SSAS), Tableau and/or QlikView.
+• Analyzing, cleaning and manipulating data along with transforming source data into standardized formats for inclusion in a master database.
+• Validating processed results generated by other developers.
+• Generating data analytics reports.
+• Interactive experience with SQL to perform standard ETL processes.
+• Knowledge and experience with Java would be a plus, although not a requirement</t>
+  </si>
+  <si>
+    <t>Must have:
+Have 4 months or 2 years practical experience in Tester of software company
+Bachelor in Information Technology, Mathematics
+Have high logical thinking, good analytical and problem solving skills.
+Knowledge of database system (MS SQL, my SQL, Oracale DB) is an advantage
+Ability to use English well
+Can work abroad for short or long term.
+Others required
+Good analytical and problem solving skills
+Good communication with colleagues
+Meticulous, dynamic, flexible, able to withstand high pressure in the work.</t>
+  </si>
+  <si>
+    <t>Degree/Diploma in Computer Science or related major
+Knowledge and experience in using C++, C#, Visual Basic, Visual.net, Sql Database is a MUST
+Minimum 2 years relevant experience on fundamental software development
+Knowledge of relevant Point of Sales (POS) applications is an advantage
+Basic knowledge of common network and authentication protocols / technologies such as LAN, WAN, TCP/IP, VPN, Microsoft Office, etc. is an advantage
+Friendly manner and patience in users requirement handling
+Good oral and written communication skills in English is an advantage
+Ability to synthesize non-technical uses’ requests into clear and concise IT programming requirement and effectively communicate to IT personnel
+Ability to work on an independent and self-motivated basis with minimal supervision.
+Ability to prioritize tasks to maximize productivity
+Can work under pressure and overtime to cope with the project implementation plan</t>
+  </si>
+  <si>
+    <t>Create and maintain database objects to include databases, tables, indexes, stored procedures, triggers, SQL Agent Jobs, etc. using Microsoft SQL Server 2016 Enterprise Edition
+Install and configure SQL server to include non-standard ports and named instances
+Document database objects and processes
+Produce ad hoc database reports on short notice
+Conduct database performance monitoring and make database changes as necessary to improve performance
+Ability to produce production-quality T-SQL code complete with internal documentation rapidly with a minimum of supervision
+Ability to quickly analyze existing T-SQL code and make improvements to enhance performance, take advantage of new SQL features, close security gaps, and increase robustness and maintainability of the code.
+Solid understanding of normalization and denormalization of data, database exception handling, transactions, profiling queries, performance counters, and debugging techniques
+Familiar with SQL security techniques such as data encryption at the column level, Transparent Data Encryption (TDE), signed stored procedures, and assignment of user permissions
+Strong attention to detail with the ability to make accurate estimates and meet deadlines
+Strong communication skills, with an ability to express technical concepts in business terms
+Importing data from various sources into an MS SQL Server database with an eye for repeatability and automation
+Writing complex stored procedures
+Analyzing, cleaning and de-duping data and building stored procedures to do the same
+Transforming source data into standardized formats for inclusion in the master database
+Validating processed results generated by other developers
+Generating data analytics reports
+Must be good at English</t>
+  </si>
+  <si>
+    <t>About you
+You see challenges where other people see problems.
+You work independently and play well in teams.
+You think engineering and creativity go hand in hand.
+Skills and knowledge
+You have a strong sense for data flows and data transformations in complex infrastructures.
+You love Go/Python and you know why.
+You know how to store and access data efficiently.
+You are familiar with pragmatic REST and elegant API design.
+You are paranoid about security and know how to secure web services and encrypt data.
+You use automated tests to structure your code and assure its quality.
+You work with Unix systems and follow best practices like The Twelve Factors.</t>
+  </si>
+  <si>
+    <t>This position welcomes for talents from fresh gradudates to senior level who
+MUST HAVE: 
+Bachelor Degree in Engineering/Computer Science/Information Technology or equivalent.
+0 - 3 years of experience as Software Test Engineer.
+Capability to analyze requirements, writing test procedures, execute manual testing, understanding a test plan.
+Basic English communication and understanding.
+NICE TO HAVE :
+6 months to 3 years software engineering experience with Window and Linux platform, C/C++ and Python (or equivalent scripting languages).
+Experience in working with onshore/offshore model and abroad.
+Experience in full system testing/ PC application testing.
+Basic understanding of oscilloscopes and USB analyzer, digital volt meters and related test equipment.
+ISTQB Foundation Certification or Advanced Certification.</t>
+  </si>
+  <si>
+    <t>- Có ít nhất 2 năm kinh nghiệm trong lĩnh vực phát triển phần mềm với ngôn ngữ PHP (back-end or front-end)
+- Nắm vững về lập trình hướng đối tượng OOP (với C++ hoặc Java hoặc PHP) 
+- Có kinh nghiệm làm việc với 1 trong số các framework của Javascript như: AngularJS, EmberJS, BackboneJS, CakePHP, Laravel, Yii, Symfony, Phalcon, Zend…
+- Có kiến thức về hệ quản trị cơ sở dữ liệu, ưu tiên ứng viên có kinh nghiệm MySQL
+- Sử dụng cơ bản Source Version Control (Github) hoặc tương tự
+- Khả năng giao tiếp tốt, kĩ năng phân tích vấn đề, đưa ra giải pháp và lên kế hoạch thực thi tốt. Tinh thần trách nhiệm cao, cẩn thận và tỉ mỉ trong công việc
+- Có hiểu biết về Clean Code rules và Design Pattern là một lợi thế 
+- Đọc tiếng Anh tốt là một lợi thế</t>
+  </si>
+  <si>
+    <t>We are passion with new technologies, not follow the old-track of out-sourcing. We love our product and ready to sacrifice everything for it! You often argue with your boss? Don’t worry, here in M_Service, you will get salary increase if you win your boss in argument. We love objection!!! You hate company trip in hotel, resort? We only conquer difficult and hottest road in team building. Do you want to join?
+What you will get:
+Attractive packages and commissions
+Young and active environment in one of the top Fintech Company in Vietnam
+All Ideas are appreciated – No barriers– No limitation
+Performance-based bonus.
+Our benefits:
+KPIs salary (plus 1-4 payment)
+12 days annual leave
+Other benefits as per stated in Vietnamese Labor Law
+Social Insurance, plus PVI Insurance
+Salary review: 1 times/year based on employee's performance and contribution.
+Team Building activities: At least 2 times/year
+Free parking.
+Professional and motivated team.
+Youthful and friendly colleagues.
+Extensive training from senior members, you will learn new things every day.
+Nice working place: Spacious, clean, high-end PCs
+For more information, please visit our website at: https://momo.vn/</t>
+  </si>
+  <si>
+    <t>Salary attachtive: 1000$ - 1500$ (Mid Level); 1500$ - 2000$ (Senior Level)
+Two days off per week, 12 standard leave days per year
+Full benefit with social insurance (Social Insurance, Health Insurance, Unemployment, Insurance…)
+13rd month salary
+Friendly environment
+Work in well-equipped and professional IT environment and IT community
+No limit on your career development, we take excellent care of our talents
+Amazing performance-based bonus, year-end bonus
+Crazy allowances (lunch, parking, birthday, transportation, telephone, etc.)
+Regular Outing, team building and company party, birthday party activities</t>
+  </si>
+  <si>
+    <t>We hope VNG is a place where you build your career. Whether you want to pursue to be a manager or focus on professional development, we acknowledge and appreciate your talents. Therefore, we open up to you more promotion opportunities in VNG, and designed program to help you succeed in every single career path.
+NO SUIT, NO TIE: At VNG, we do not have many rules because we respect you and want to make comfortable atmosphere to help employees perform their jobs well.
+Company “pay” for you: Lunch, parking, swimming, learning English or gym for free and you know you are really in care.
+NO BARRIERS: Office of VNG is an open space because we always try to remove all barriers to help members easily shares with each other.
+Being a big family: Like a gift for family day. A party for the kids. We know how much your family matters.
+NO RANK At VNG, members are encouraged to contribute ideas and debate with the others.
+Be explored: Ph.D., un-academic guy, bookish girl, fashion designers ... VNGers are different and this diversity makes life more colorful.
+ NO "OFFICE": Office is like your home. You can hang paintings, plant trees, even feed aquarium on the desk.
+Be showed your best: VNGers like to "mortification" with the group games such as: Fansipan climbing, waterfall rafting, go over heat mats; there activities not only are tightening friendship, but also practice their bravery.
+ GAMING: Even if you do not make the game, stealing beans in the boss’s garden or versusing with your colleagues in a sword competition play online is also an interesting way to relax.
+Changing the world: Creating an entertainment channel, building a social network and developing a game. On the Internet world, every single thing you did can change the lives of many people.
+Let’s join VNG to share our mission: 'MAKE THE INTERNET CHANGE VIETNAMESE LIVES'</t>
+  </si>
+  <si>
+    <t>Comprehensive Health Insurance Coverage
+Personal Development Fund for courses and materials.
+Opportunity to attend the international conferences.
+Ample opportunities to grow. You get to propose your own ideas and see it through.
+Work with passionate, talented and driven colleagues who get things done
+Cross-country teams with passionate, talented and driven colleagues.
+Challenging and exciting problems that await you to solve.
+13th month salary</t>
+  </si>
+  <si>
+    <t>Mức thu nhập từ 1.000$- 2.000$/ tháng
+Được làm việc với các chuyên gia đầu ngành trong lĩnh vực an toàn thông tin,
+Được va chạm xử lý các vụ việc mất an toàn thông tin tối quan trọng.
+Có cơ hội tham gia các hội thảo ATTT trong nước và thế giới (Singapore, Mỹ, Tây Ban Nha,…)
+Môi trường làm việc trẻ trung, hiện đại, nhiều cơ hội phát triển nghề nghiệp.</t>
+  </si>
+  <si>
+    <t>Opportunity to build challenging data product.
+Freedom of thinking. You are free to explore and to form new hypothesis.
+Ethical data product.
+Peer-to-peer mentorship and on-the-job training.
+Learning materials from world's top educators.
+Awesome startup culture where reasons matter more than titles.
+A diverse, inclusive, and supportive working environment.
+Supportive leadership that cares about your growth.
+Opportunities to travel around our homes across the country and make new friends.
+A competitive total compensation package with attractive base salary and performance incentives.
+Potential generous performance based ESOP program.
+Additional private health insurance, paid days-off to travel, and flexible working schedule.</t>
+  </si>
+  <si>
+    <t>“FPT care” health insurance provided by AON and is exclusive for FPT employees.
+Annual Summer Vacation: follows company’s policy and starts from May every year
+Salary review 2 times/year or on excellent performance
+International, dynamic, friendly working environment
+Annual leave, working conditions follow Vietnam labor laws.
+Other allowances: lunch allowance, working on-site allowance, etc.</t>
+  </si>
+  <si>
+    <t>Flat organization and open communication
+Friendly, flexible, and fun working environment
+Very attractive salary based on skills and experience
+Healthcare insurance and annual health checkup
+Free office lunch
+13th month of salary
+15 days paid leave per year
+Great opportunity for career development
+Recognition and reward program
+RECENT COMPANY UPDATES
+https://www.techinasia.com/deliveree-series-a
+https://medium.com/deliveree</t>
+  </si>
+  <si>
+    <t>Company provides mandatory and not mandatory business trips:
+Academy mandatory educational program hosted in Israel for learning about product, teams, business goals, technologies and meeting team members from all around the wold
+Business trips to IL
+GEEP after 1 year in the company trips provided to best performing team members to other locations to bring technical knowledge to other company offices and assist team members around the world
+Social Package includes:
+Medical Insurance
+Sport reimbursement + paid team sport activities
+English classes
+Paid vacations (20 working days) + all Ukrainian national holidays
+Paid sick days
+Team building, happy hours and other team activities
+Parking
+Snacks, fruits &amp; ice cold beer
+All new team members provided brand new Mac computer with 2 monitors and starter's package.</t>
+  </si>
+  <si>
+    <t>Hưởng chế độ đãi ngộ đáng mơ ước với thu nhập bình quân cạnh tranh
+Là đồng nghiệp của đội ngũ chuyên gia công nghệ hàng đầu về các lĩnh vực như: DPI (Deep Packet Inspection), BigData, Machine Learning, AI (Artificial Intelligence), Data Mining, Speech Recognition, Virtual Assistant, NLP (Natural Language Processing), Search Engine, Chatbot, CDN Cloud,….
+Xem xét nâng lương hàng năm cho cá nhân xuất sắc (tối thiểu 1 năm 1 lần)
+Nhận ngay hơn 400$ tiền phúc lợi cho nghỉ mát chưa kể đến các khoản thưởng cho các dịp lễ, Tết (khoảng hơn 2500$)
+11 ngày nghỉ lễ hàng năm. Luôn được hưởng đầy đủ các chế độ BHXH, BHYT, BHTN và nghỉ phép, nghỉ ốm theo luật định sau khi ký Hợp đồng lao động
+Tiếp cận với những cơ hội thăng tiến hấp dẫn
+Khai phá tiềm năng với các khoa đào tạo chuyên sâu về chuyên môn, hội thảo, khoá học theo nguyện vọng cá nhân
+Làm việc trong các dự án trọng điểm của Tập đoàn với quy mô hệ thống lớn
+Trải nghiệm sự đa văn hóa khi làm việc với nhân sự của Viettel tại hơn 10 quốc gia trên thế giới</t>
+  </si>
+  <si>
+    <t>We offer extremely competitive salaries and a terrific benefits package for all our HCMC team members, including generous comprehensive optional health insurance package for family. We guarantee you a hyper-energy startup environment with non-stop learning and growth opportunities. Professional development of our team is key and we will provide reimbursements for approved training and certifications. In addition, generous paid time off, holidays, annual and regular company outings are all provided. Come join and help us make an impact and difference in people’s lives!</t>
+  </si>
+  <si>
     <t>15 days of annual leave and 5 days of sick leave per year
 Employees are equipped with Macbook Pros
 13th month salary and yearly bonus based on performance
 Regular team building and company party
 Flexible working hours and 5 working days a week
 Training course in Singapore or Malaysia</t>
+  </si>
+  <si>
+    <t>Opportunities to be trained by global leading companies, such as Oracle, Juniper, Hitachi, IBM, HP, etc.
+Participate in large projects covering various business segments, work on large-scale enterprise servers and storages at big data centers, with certified local and international experts.
+A Dynamic, Professional and Friendly Working Environment with the philosophy “Company is the sweet home” and “People are the most precious resource”. SVTECH is the second home where every member lives and works together with a warm heart and a spirit of continuous learning towards.
+Competitive salary package &amp; get annual bonus directly from company’s profit (at least 14 salary months).
+Additional International Insurance Package for employees and family up to $3000/person.
+Nourishing environment with various activities: team building, sports clubs, music, sunflower program, happy hours, etc…</t>
+  </si>
+  <si>
+    <t>Top market salary
+Generous comprehensive optional health insurance package for family
+Free premium gym membership
+Free Grab to work
+Housing allowance if moved closer to office</t>
+  </si>
+  <si>
+    <t>• Competitive salary;
+• Approach advanced technology in debt collection;
+• Full standard package of social insurance, health insurance, unemployment insurance;
+• 13th month salary bonus;
+• 24h accident insurance;
+• Annual health check;
+• Annual leaves up to 14 days;
+• Benefits from Trade Union (birthday, holidays…);
+• Annual salary review</t>
   </si>
   <si>
     <t>What you can expect from us:
@@ -695,54 +2033,19 @@
 13th-month salary</t>
   </si>
   <si>
-    <t>Opportunities to be trained by global leading companies, such as Oracle, Juniper, Hitachi, IBM, HP, etc.
-Participate in large projects covering various business segments, work on large-scale enterprise servers and storages at big data centers, with certified local and international experts.
-A Dynamic, Professional and Friendly Working Environment with the philosophy “Company is the sweet home” and “People are the most precious resource”. SVTECH is the second home where every member lives and works together with a warm heart and a spirit of continuous learning towards.
-Competitive salary package &amp; get annual bonus directly from company’s profit (at least 14 salary months).
-Additional International Insurance Package for employees and family up to $3000/person.
-Nourishing environment with various activities: team building, sports clubs, music, sunflower program, happy hours, etc…</t>
-  </si>
-  <si>
-    <t>Hưởng chế độ đãi ngộ đáng mơ ước với thu nhập bình quân cạnh tranh
-Là đồng nghiệp của đội ngũ chuyên gia công nghệ hàng đầu về các lĩnh vực như: DPI (Deep Packet Inspection), BigData, Machine Learning, AI (Artificial Intelligence), Data Mining, Speech Recognition, Virtual Assistant, NLP (Natural Language Processing), Search Engine, Chatbot, CDN Cloud,….
-Xem xét nâng lương hàng năm cho cá nhân xuất sắc (tối thiểu 1 năm 1 lần)
-Nhận ngay hơn 400$ tiền phúc lợi cho nghỉ mát chưa kể đến các khoản thưởng cho các dịp lễ, Tết (khoảng hơn 2500$)
-11 ngày nghỉ lễ hàng năm. Luôn được hưởng đầy đủ các chế độ BHXH, BHYT, BHTN và nghỉ phép, nghỉ ốm theo luật định sau khi ký Hợp đồng lao động
-Tiếp cận với những cơ hội thăng tiến hấp dẫn
-Khai phá tiềm năng với các khoa đào tạo chuyên sâu về chuyên môn, hội thảo, khoá học theo nguyện vọng cá nhân
-Làm việc trong các dự án trọng điểm của Tập đoàn với quy mô hệ thống lớn
-Trải nghiệm sự đa văn hóa khi làm việc với nhân sự của Viettel tại hơn 10 quốc gia trên thế giới</t>
-  </si>
-  <si>
-    <t>Top market salary
-Generous comprehensive optional health insurance package for family
-Free premium gym membership
-Free Grab to work
-Housing allowance if moved closer to office</t>
-  </si>
-  <si>
-    <t>We offer extremely competitive salaries and a terrific benefits package for all our HCMC team members, including generous comprehensive optional health insurance package for family. We guarantee you a hyper-energy startup environment with non-stop learning and growth opportunities. Professional development of our team is key and we will provide reimbursements for approved training and certifications. In addition, generous paid time off, holidays, annual and regular company outings are all provided. Come join and help us make an impact and difference in people’s lives!</t>
-  </si>
-  <si>
-    <t>Ứng viên có thể đi làm ngay hoặc ra tết đi làm 
-Mức lương hấp dẫn lên đến 1500$/tháng
-Ăn trưa miễn phí.
-Một năm có thể đạt 15 đến 20 tháng lương.
-Được đóng BHXH, BHYT, BHTN và hưởng đầy đủ các quyền lợi theo Luật lao động Việt Nam.
-Thưởng các ngày lễ, Quý, Năm… và xét tăng lương theo quy định của Công ty.
-Du lịch hàng năm.
-Được đào tạo và làm việc trong môi trường trẻ trung, chuyên nghiệp, có cơ hội thăng tiến.</t>
-  </si>
-  <si>
-    <t>• Competitive salary;
-• Approach advanced technology in debt collection;
-• Full standard package of social insurance, health insurance, unemployment insurance;
-• 13th month salary bonus;
-• 24h accident insurance;
-• Annual health check;
-• Annual leaves up to 14 days;
-• Benefits from Trade Union (birthday, holidays…);
-• Annual salary review</t>
+    <t>13th month salary yearly
+Extra bonus based on performance and company profit yearly
+Extra Insurance – FPT Care
+Has chance to become the shareholder of the company
+Company Trip annually
+Team building trip annually
+Gift on special days like birthday, Tet and Holidays
+Opportunities to work in Agile Environment
+Office is located in District 7
+Team building activities such as Fruit Days
+Sport activities like Football club
+Training to develop our employees
+Performance Review every year to adjust Salary and title/position</t>
   </si>
   <si>
     <t>1. Quyền lợi đặc thù:
@@ -793,6 +2096,16 @@
 Hỗ trợ các bữa ăn tại công ty; Khu phúc lợi hiện đại: Ngân hàng, siêu thị, trung tâm y tế,...</t>
   </si>
   <si>
+    <t>Ứng viên có thể đi làm ngay hoặc ra tết đi làm 
+Mức lương hấp dẫn lên đến 1500$/tháng
+Ăn trưa miễn phí.
+Một năm có thể đạt 15 đến 20 tháng lương.
+Được đóng BHXH, BHYT, BHTN và hưởng đầy đủ các quyền lợi theo Luật lao động Việt Nam.
+Thưởng các ngày lễ, Quý, Năm… và xét tăng lương theo quy định của Công ty.
+Du lịch hàng năm.
+Được đào tạo và làm việc trong môi trường trẻ trung, chuyên nghiệp, có cơ hội thăng tiến.</t>
+  </si>
+  <si>
     <t>Bắt Tay Cùng ACB
 Bạn có thêm 10.000 đồng nghiệp tại 365 đơn vị trên cả nước.
 Bạn được chia sẻ những mối quan tâm với một cộng đồng thân thiện, tôn trọng con người
@@ -818,20 +2131,250 @@
     <t>Company 's Policy</t>
   </si>
   <si>
-    <t>Company provides mandatory and not mandatory business trips:
-Academy mandatory educational program hosted in Israel for learning about product, teams, business goals, technologies and meeting team members from all around the wold
-Business trips to IL
-GEEP after 1 year in the company trips provided to best performing team members to other locations to bring technical knowledge to other company offices and assist team members around the world
-Social Package includes:
-Medical Insurance
-Sport reimbursement + paid team sport activities
-English classes
-Paid vacations (20 working days) + all Ukrainian national holidays
-Paid sick days
-Team building, happy hours and other team activities
-Parking
-Snacks, fruits &amp; ice cold beer
-All new team members provided brand new Mac computer with 2 monitors and starter's package.</t>
+    <t>Mức thu nhập : đến 32 triệu/ tháng
+Đánh giá KPI và thưởng 2 lần/ năm.
+Chế độ đào tạo, thi chứng chỉ chuyên môn, quản lý.
+Chế độ bồi dưỡng, nâng cao ngoại ngữ theo chuẩn khung tham chiếu châu Âu.
+Hỗ trợ 100% chi phí thi chứng chỉ và lệ phí thi chứng chỉ.
+Hỗ trợ 100% chi phí tham gia các hội thảo công nghệ trong nước.
+Được tham gia các hoạt động thể thao nâng cao sức khỏe do công ty tài trợ ( bơi, yoga, bóng đá, cầu lông).
+Được tham gia 2 kỳ teambuilding hoành tráng/năm do công ty tài trợ.
+Được tham dự các buổi chia sẻ từ các chuyên gia về các chủ đề liên quan đến gia đình, giáo dục, sức khỏe ngay tại công ty.</t>
+  </si>
+  <si>
+    <t>*** Benefits for successful candidates:
+1. Salary: Competitive
+2. Beside NET salary, employee will get the bonus 2 times per year according to working performance periodically and company profit.
+3. Salary increment: 1 time per year.
+4. Professional working conditions.
+5. Support IT and Business Manner courses.
+6. Work off on Saturday and Sunday by weekly, public holidays according to Vietnam labor Law
+7. Company retreat: 1 time per year
+8. Take annual leave 16 days per year.
+9. Have a chance to work and study in Japan, India etc</t>
+  </si>
+  <si>
+    <t>*** Benefits for successful candidates:
+1. Salary: Competitive
+2. Beside NET salary, employee will get the bonus 2 times per year according to working performance periodically and company profit.
+3. Salary increment: 1 time per year.
+4. Professional working conditions.
+5. Support IT and Business Manner courses.
+6. Work off on Saturday and Sunday by weekly, public holidays according to Vietnam labor Law
+7. Company retreat: 1 time per year
+8. Take annual leave 16 days per year.
+9. Have a chance to work and study in Japan, APAC, India etc</t>
+  </si>
+  <si>
+    <t>Mức thu nhập : đến 18 triệu/ tháng.
+Đánh giá KPI và thưởng 2 lần/ năm.
+Chế độ đào tạo, thi chứng chỉ chuyên môn, quản lý.
+Chế độ bồi dưỡng, nâng cao ngoại ngữ theo chuẩn khung tham chiếu châu Âu.
+Hỗ trợ 100% chi phí thi chứng chỉ và lệ phí thi chứng chỉ.
+Hỗ trợ 100% chi phí tham gia các hội thảo công nghệ trong nước.
+Được tham gia các hoạt động thể thao nâng cao sức khỏe do công ty tài trợ ( bơi, yoga, bóng đá, cầu lông).
+Được tham gia 2 kỳ teambuilding hoành tráng/năm do công ty tài trợ.
+Được tham dự các buổi chia sẻ từ các chuyên gia về các chủ đề liên quan đến gia đình, giáo dục, sức khỏe ngay tại công ty.</t>
+  </si>
+  <si>
+    <t>LÀM VIỆC VỚI CHÚNG TÔI
+“Nếu bạn có động lực, tự tin và sẵn sàng làm việc hết mình, hãy GIA NHẬP CHÚNG TÔI. Chúng tôi mang đến cho bạn cơ hội hiện thực hóa các khả năng của bạn trong một môi trường làm việc đầy thách thức nhưng cũng rất thân thiện, nơi các nhân viên ưa thích chế độ lương thưởng cao tương ứng với hiệu quả làm việc, cơ hôi phát triển nghề nghiệp nhanh chóng và kinh nghiệm học hỏi ưu việt từ những nhà lãnh đạo đẳng cấp quốc tế”
+Công ty hàng đầu
+Một trong những ngân hàng hàng đầu và phát triển nhanh nhất tại Việt Nam.
+Với đội ngũ lãnh đạo có sức thuyết phục đối với CBNV trong mọi hoạt động.
+Chú trọng đến yếu tố con người xoay quanh các giá trị.
+Công việc tốt
+Môi trường làm việc thân thiện.
+Tự chủ và linh hoạt.
+Cơ hội tham gia vào nhiều lĩnh vực dựa trên nguyện vọng của từng cá nhân.
+Cơ hội thăng tiến và phát triển 
+Khả năng thăng tiến nhanh chóng dựa trên kết quả làm việc.
+Có cơ hội được huấn luyện và học hỏi từ các chuyên gia tài chính quốc tế (HSBC) và đội ngũ lãnh đạo hàng đầu trong nước.
+Chú trọng trong công tác đào tạo.
+Chế  độ đãi ngộ
+Lương cố định cạnh tranh
+Cơ hội đạt được mức thưởng tài chính cao với kết quả làm việc tốt.
+Chế độ phúc lợi cạnh tranh.</t>
+  </si>
+  <si>
+    <t>At Flexidata we provide an open-minded work place, young blood team members, encourage to bring "fun &amp; life" into work while improving professional work ethics.
+You have opportunity working alongside other high caliber people.
+As a technology company, we are always in urge of changes and adapt to new things, developing our competence and being more effective. Hence working with Flexidata you have good challenges and pressure to drive you forward.
+Annual team building trip.
+The opportunity to work with a variety of customers in different industries.
+The opportunity to work with international companies in Vietnam and overseas.</t>
+  </si>
+  <si>
+    <t>SSI is not just well-known for its professional working environment, but also concerns the employees’ spiritual life together with attractive welfare schemes:
+Transparent salary policy linked to each position level and employee’s capacity has created out competitive edge in the market.
+Comprehensive welfare policy and training program at each stage of our employee’s career.
+Transparent recruitment policy and career development opportunities.
+Varied engagement activities have created “The great work place” at SSI.</t>
+  </si>
+  <si>
+    <t>Perks you will love:
+Product for 150+ customers, millions of users worldwide
+Exposure to world famous customer organizations
+Swiss grade work organization &amp; quality
+Frequent interactions with Switzerland/France/UK/Spain
+Build a fast &amp; solid career path with clear &amp; attractive promotion opportunities
+Advanced software factory &amp; technical environments
+300+ machines in build pipeline, 60+ technologies
+300+ deliveries per year, full automated test suite
+Benefits:
+Premium Health Insurance Package
+Fun, regular team building activities
+Love from the team. We are very collaborative &amp; friendly
+Travel opportunities to visit our customers in Europe
+English class, training, strong support for career development
+Paralleled coaching &amp; training from industry-leading experts</t>
+  </si>
+  <si>
+    <t>- 14 ngày nghỉ phép/năm.
+- Cam kết tháng lương 13.
+- Chế độ bảo hiểm sức khỏe cao cấp và kiểm tra sức khỏe định kỳ hàng năm.
+- Thưởng các ngày lễ, Tết và thưởng theo KPIs.
+- Tặng quà sinh nhật, quà Tết…
+- Cơ hội tham gia các câu lạc bộ: Tennis, Cầu lông, Yoga, Bóng đá…
+- Các hoạt động Teambuilding sôi nổi, thường niên: Family Day, Gala Dinner.
+- Công ty tài trợ toàn bộ chi phí các chương trình đào tạo hỗ trợ cho công việc.</t>
+  </si>
+  <si>
+    <t>3F forever: you are guaranteed to experience our 3F office motto “FOOD, FRIENDS AND … FUN”.
+You'll learn a lot: we don't do outsourcing so you won't have to deal with the frequent technology switch that comes with a new outsourcing project (and therefore not having enough time to really master any of them). Here you are the owner of your slice of the product. You'll have the opportunity to dig deep into whatever technology you're working with and become really good at it. There are milestones to follow, but in general you'll manage your own tasks and set your own pace.
+Young and dynamic working environment: we try to maintain an easygoing working environment where there is no rigid structure, everyone's feedback is valued and you're free to chime in any topic you like. We need the different perspectives.
+Work hard, play hard: we like you to play as hard as you work, too. We've got darts, hoop, guitar in the office with more coming soon.
+Annual off-site trip: our first trip was to Shanghai.
+Unlimited food, drinks and snacks: from “mì gói” to sausage to Red Bull, you name it, you have it. Plus, you can always eat while you work, no need to wait for the common break.
+Flexible salary reviews: you perform well, you get a raise. At any time of the year. No need to wait for an annual salary review.
+Other benefits:
+13th month salary.
+Standard 40-hour work week, from Monday to Friday.
+12 days of annual leave.
+Social, medical and unemployment insurance plus other benefits in accordance with regulations.</t>
+  </si>
+  <si>
+    <t>Here are the things that differentiate ASW Vietnam from other companies:
+Overseas company trips
+13th and 14th month performance based bonuses
+20 days annual leave + 10 days sick leave
+Personal Insurance Package for employee and 1 family member of choice
+Opportunities to travel and work with clients abroad
+Training to develop our employees: Organizational Behavior, Management and Leadership training, Professional Scrum Master by Scrum.org, etc...
+Opportunities to work in an Agile environment
+Overtime is rarely required
+Exciting team building activities such as Sport Tournament, Robocode tournament, etc…</t>
+  </si>
+  <si>
+    <t>Chance to join oversea training and oversea company trip
+15 Annual leave along with other special leaves
+Company allowances: Mobile, Dental care, Optical,…
+Medical, Social, Healthcare, Accident Insurance according to the Labor Code
+Companies try to attract you with office perks (i.e free snack, free coffee, gym,...). YES! We do provide in our ability. We believe these things can be easily provided but what we offer below is only at Dimension Data.
+------------------------------------------------------------------------------------------------------------
+People: At Dimension Data, everyone is a source of new knowledge that is open for you to learn from and everyone is open to learn from you as well. No hiding. No politics. You can expand your mind by just talk.
+Collaboration: With the support of a strong internal platform (Wired, Yammer group and Forums), technology (virtual meeting room, webex, workplace internet) you will be able to work, to discuss and collaborate with other employees in Dimension Data in other countries...even when you are making coffee in our pantry.
+Teamwork: Dimension Data Vietnam in particular is confident to say we have a strong and healhty culture of work. We have a WInning spirit from the top and a strong bonding among employees. Teamwork is a must here to deliver a 10/10 service to clients.
+Empowerment: You are free to propose your new way of doing things because everyone shares one big goal is to DELIVER THE BEST SERVICE TO CLIENTS AT THE MOST EFFECTIVE WAY - LOWEST COST AND FASTEST. 
+Equality: Power barrier is blurry here. We respect people but we dont scare of people we work with. Therefore, if you have an idea, you need to talk and discuss, just raise your voice and everyone will try to help, even the Managers.</t>
+  </si>
+  <si>
+    <t>Insurance
+Laptop
+Chance to join oversea training and oversea company trip
+15 Annual leave along with other special leaves
+Company allowances: Mobile, Dental care, Optical,…
+Medical, Social, Healthcare, Accident Insurance according to the Labor Code
+Companies try to attract you with office perks (i.e free snack, free coffee, gym,...). YES! We do provide in our ability. We believe these things can be easily provided but what we offer below is only at Dimension Data.
+------------------------------------------------------------------------------------------------------------
+People: At Dimension Data, everyone is a source of new knowledge that is open for you to learn from and everyone is open to learn from you as well. No hiding. No politics. You can expand your mind by just talk.
+Collaboration: With the support of a strong internal platform (Wired, Yammer group and Forums), technology (virtual meeting room, webex, workplace internet) you will be able to work, to discuss and collaborate with other employees in Dimension Data in other countries...even when you are making coffee in our pantry.
+Teamwork: Dimension Data Vietnam in particular is confident to say we have a strong and healhty culture of work. We have a WInning spirit from the top and a strong bonding among employees. Teamwork is a must here to deliver a 10/10 service to clients.
+Empowerment: You are free to propose your new way of doing things because everyone shares one big goal is to DELIVER THE BEST SERVICE TO CLIENTS AT THE MOST EFFECTIVE WAY - LOWEST COST AND FASTEST. 
+Equality: Power barrier is blurry here. We respect people but we dont scare of people we work with. Therefore, if you have an idea, you need to talk and discuss, just raise your voice and everyone will try to help, even the Managers.</t>
+  </si>
+  <si>
+    <t>※ Những phúc lợi mà hiện tại phía WDS đang có:
+●　Teamwork: WDS là một môi trường làm việc tuyệt vời vì mọi người luôn coi nhau là gia đình của mình. Những người xung quanh luôn thân thiện, vui vẻ, giúp đỡ lẫn nhau,..
+●　Lương thưởng: Hai lần trong 1 năm.
+●　Hoạt động:
++ Du lịch công ty 1 năm 1 lần, khám sức khỏe 1 năm 1 lần.
++ Các buổi tiệc như tiệc Halloween, Giáng Sinh, Tiệc cuối năm, Tiệc sinh nhật hàng tháng, ...
+●　Thời gian làm việc: Từ 8:00 ~ 17:00, Thứ Hai đến Thứ Sáu.
+●    Một số phúc lợi khác:
++ Ngoài các gói bảo hiểm cơ bản, bạn còn được tham gia gói bảo hiểm tai nạn lao động tại WDS.
++ Ngày nghỉ đặc biệt dành cho nhân viên nữ: 0.5 ngày/ tháng.
++ Đối với nhân viên ký hợp đồng không xác định thời hạn: thì từ thời điểm ký hợp đồng không xác định thời hạn, cứ mỗi năm được cộng thêm 1 ngày nghỉ phép. Ngày nghỉ phép không sử dụng hết trong năm sẽ trả vào lương tháng cuối cùng của năm.</t>
+  </si>
+  <si>
+    <t>ESTEC’s mission is to focus on training and developing human resources, creating the best opportunities for progress and success personally or in team. That’s why ESTEC is a good working environment:
+1. Opportunity for personal growth:
+Opportunity to work with the newest applications of Industry 4.0 in Factory
+Training chance from the large and multi-national companies and to execute Digital Factory technology projects.
+ESTEC is authorized partners of large companies with various training courses from their company experts.
+ESTEC’s professional engineer team will coach and support you during executing projects.
+2. Good working place:
+Dynamic
+Dedicated
+Creative
+Friendly
+3. Competitive benefit package
+Get entitled to the SHUI Policy (Social, Health Insurance and Unemployment Policy) as labor law.
+Get entitled to Personal Health Package like Bao Viet Insurance
+Join annually Company Trip and Outing Trip with the Company
+Get rewards on national holidays and annually/quarterly based on your performance.</t>
+  </si>
+  <si>
+    <t>BENEFITS:
+13th month salary
+Project bonus reviewed six months per time
+Salary review: 01 time per year
+Company trip: 01 time peryear in domestic or outbound.
+Team Building
+BHXH, BHYT, BHTN will be paid 100% by Company
+Health checking 1 time per year
+Great-equipped facilities with MacBook or PC with 2 monitors
+Training for English and work-related / soft-skills
+Annual leave: 12 days/year for first 03 years, and from 4th year will add more 1 day for each year Working time from Monday to Friday or flexible depend on project. Not OT
+Transportation, lunch meal support allowance
+Birthday gift and party, wedding support allowance.
+V3SI CULTURES:
+We truly value your thoughts and opinions
+Super friendly coworkers!</t>
+  </si>
+  <si>
+    <t>Lương thỏa thuận: Chế độ lương cao so với mặt bằng chung của NH (13 tháng) và có chế độ khen thưởng định kỳ.
+Bảo đảm công việc ổn định lâu dài, nhiều tình huống thử thách tính năng động và sáng tạo, phát huy tối đa năng lực bản thân, có cơ hội thăng tiến, phát triển sự nghiệp.
+Môi trường và điều kiện làm việc tốt, đầy đủ phương tiện, thiết bị phục vụ công việc;
+Đồng nghiệp thân thiện, sẵn sàng giúp đỡ, hỗ trợ;
+Đánh giá và trả lương theo năng lực, thưởng hấp dẫn.
+Được hưởng đầy đủ các chế độ đãi ngộ theo Luật Lao động Việt Nam (BHXH, BHYT…);
+Được tham gia các chương trình đào tạo nội bộ và bên ngoài</t>
+  </si>
+  <si>
+    <t>Premium healthcare package;
+Attractive salary and good benefits will be exchanged directly at the interview;
+13th month salary, annual salary review;
+2 -4 months’ salary bonus based on performance
+Working for one of the biggest payment system in the world, co-working with other international finance institution system to deliver the smoothly payment experience to customer
+Opportunity to frequently travel to China and South East Asia countries every month;
+Join a young, friendly and dynamic team in an international and professional working environment;
+Interesting workplace with multi-culture and English communication;
+Performance review twice a year;
+Happy hour, team lunch, team building, company trip;
+15 days full paid leave per year, 5 days admin leave, 8 days sick leave.</t>
+  </si>
+  <si>
+    <t>Successful candidate will come in one of the European subsidiaries for 3 months internal training to our methods and product.
+Opportunity to work with international company, high reputation clients on the financial, commercial financial fields: Silicon Valley Bank, BNP PARISBAS, SOCIETE GENERALE, GE Capital, UPS Capital KBC, BARCLAYS, BBVA, France telecom Orange, etc.
+Salary range: Attractive, or negotiable depending your expertise and experience.
+Social and Health insurance: According to the current Government regulations Competitive remuneration package including performance driven benefits:soft skill training, 13th month salary, project bonus, loyalty program (3% of your total annual income), key person package (yearly bonus, monthly telephone fee, Health insurance for your dependents), additional health care program - Generali, annual health examination, lunch allowance (840,000 VND/month), activities: company trip, football, volleyball ...
+Trainings and continuous investment into your professional development
+Friendly work environment with International working standards</t>
+  </si>
+  <si>
+    <t>Competitive salary
+Great working environment with amazing boss and colleagues</t>
   </si>
   <si>
     <t>5 day week
@@ -864,6 +2407,86 @@
 Our employees enjoy a high level of autonomy at work. We focus on substance, not form - as long as you can perform, you will be recognized and rewarded. We are also dedicated to supporting our staff and ensuring they develop holistically to maximize their potential in the long-term.
 At Grasshopper, you will be working in a diverse and dynamic environment with a flat hierarchy. With more than 15 nationalities working in an open office, communication is essential to performance. 
 To remain as the “small giant” of proprietary trading, we give employees a high level of autonomy and encourage them to get creative, take risks, make mistakes and learn from them.</t>
+  </si>
+  <si>
+    <t>Why You'll Love Working Here
+Salary review: 1-2 times/ year and benefits according to your skill and performance with diverse team building activity and yearly company trip.
+Chance to work with an enormous system: Core Banking, Financial leasing, E-banking, Multi - system Interface ...
+Chance to work with the professional customers and partners which are the top banks and financial institutions in the South- Est Asian Area
+Chance to use your current skills and knowledge to a new and challenging job in a friendly and attractive environment
+Friendly, cooperative and sharing team members to get any solution, support and instruction for your problem.
+Welfare policy
+Applicable for all normal benefits: insurances, 13th salary
+Healthy &amp; Travel insurance
+Tea break, snack or fresh fruit everyday
+Outdoor activities &amp; Birthday party every month</t>
+  </si>
+  <si>
+    <t>13 Salary month
+Health insurance
+Training opportunities
+Career development chance
+15 Annual leaves per year.</t>
+  </si>
+  <si>
+    <t>Building large-scale &amp; latest technology software products
+Working &amp; growing with Passionate &amp; Talented Team
+Attractive Salary and Benefits
+13th month salary
+Performance appraisal twice a year
+Onsite opportunities
+Flexible working time
+Various training on hot-trend technologies, best practices and soft skills
+Premium healthcare insurance
+Company trip in every summer, annual year-end party every year, team building, etc.
+Free in-house entertainment facilities, coffee and snack (instant noodles, cookies, candies…)</t>
+  </si>
+  <si>
+    <t>What we offer
+We are a small team of talented and ambitious people.
+We find inspiration in diversity.
+We favor skills over experience and diplomas.
+We encourage and support personal growth and lifelong learning.
+Cool working space that stimulates creativity.
+MacBook Pro as working laptop
+We believe in gender equality.
+Extra benefits
+You are entitled to 24-day paid leave per year.
+We offer competitive salary and pay raise as well as 13th month salary.
+We have free team lunch everyday.
+We love to have regular exciting team events.
+We organize our workshops in some of the coolest locations (like the beach!).</t>
+  </si>
+  <si>
+    <t>CAREER OPPORTUNIES:
+Live in a high-end technology R&amp;D environment
+Be proud to see your own developed products sold all over the world
+Strong knowledge and skills improvement through practical training and technical experience
+Career promotion with proven capabilities
+Opportunity for overseas training (US, Europe, etc.)
+BENEFITS:
+Working day: from Monday to Friday (08:00 AM- 4:30 PM)
+Global mobility program in US or Italy
+Competitive salary with annual bonus
+Long term incentive for key positions
+Outstanding employee award, monthly best employees award with attractive bonus.
+Company’s labor policy completely pursuant to Vietnam labor legislation: working conditions, social &amp; health insurance paid based on gross salary.
+Holiday bonus
+KPI reward as semi-annual
+Other benefits: free meals, transportation allowances, accident insurance 24x24, private health care insurance including dependents; gifts for Vietnam national days, scholarship for children of employees
+Exciting leisure: sport activities, corporate parties, company trip once a year, monthly teambuilding</t>
+  </si>
+  <si>
+    <t>Làm việc cùng chuyên gia dữ liệu
+Trang bị thêm kiến thức AI &amp; xử lý dữ liệu
+Rèn luyện thêm về công nghệ AI &amp; dữ liệu từ ngành thương mại điện tử, với tốc độ tăng trưởng lớn hơn 25%
+Cùng Datamanians vươn ra biển lớn
+Cùng phát triển sản phẩm ra khu vực Đông Nam Á, nhiều cơ hội chứng tỏ năng lực và dễ dàng thăng tiến
+Môi trường trẻ trung, năng động
+Với hơn 90% là các bạn trẻ 9x, tràn trề năng lượng, bất chấp mọi thử thách.
+Party hàng tuần/tháng/quý/năm
+"Work hard, play harder" là châm ngôn sống của các bạn trẻ Datamart. Tụ họp liên hoan, sinh nhật là không thể thiếu.
+Nhanh tay gửi CV về Datamart đưa sản phẩm PowerSell ra khu vực.</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +2844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,19 +2881,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1281,19 +2904,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1304,19 +2927,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1327,19 +2950,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1350,19 +2973,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1373,19 +2996,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1393,22 +3016,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1416,22 +3039,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1439,22 +3062,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1462,22 +3085,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1485,22 +3108,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>233</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1511,19 +3134,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1534,19 +3157,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1557,19 +3180,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>236</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1577,22 +3200,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1600,22 +3223,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1623,22 +3246,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1649,19 +3272,19 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1672,19 +3295,19 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1695,19 +3318,930 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" t="s">
+        <v>260</v>
+      </c>
+      <c r="G39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" t="s">
+        <v>264</v>
+      </c>
+      <c r="G43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" t="s">
+        <v>268</v>
+      </c>
+      <c r="G47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" t="s">
+        <v>269</v>
+      </c>
+      <c r="G48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
         <v>102</v>
       </c>
-      <c r="G21" t="s">
-        <v>119</v>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" t="s">
+        <v>270</v>
+      </c>
+      <c r="G49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" t="s">
+        <v>271</v>
+      </c>
+      <c r="G50" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F52" t="s">
+        <v>273</v>
+      </c>
+      <c r="G52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" t="s">
+        <v>274</v>
+      </c>
+      <c r="G53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" t="s">
+        <v>216</v>
+      </c>
+      <c r="F55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" t="s">
+        <v>278</v>
+      </c>
+      <c r="G57" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" t="s">
+        <v>279</v>
+      </c>
+      <c r="G58" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" t="s">
+        <v>220</v>
+      </c>
+      <c r="F59" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" t="s">
+        <v>281</v>
+      </c>
+      <c r="G60" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
